--- a/datos/CUBOgv_202517.xlsx
+++ b/datos/CUBOgv_202517.xlsx
@@ -1863,10 +1863,10 @@
         <v>202517</v>
       </c>
       <c r="F2" s="2">
-        <v>18122</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>223</v>
+        <v>18124</v>
+      </c>
+      <c r="G2" s="2">
+        <v>19192</v>
       </c>
       <c r="H2" s="2">
         <v>3154.8599999999997</v>
@@ -1875,25 +1875,25 @@
         <v>223</v>
       </c>
       <c r="J2" s="2">
-        <v>7211716.41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>223</v>
+        <v>7309561.87</v>
+      </c>
+      <c r="K2" s="2">
+        <v>38634070.93</v>
       </c>
       <c r="L2" s="2">
-        <v>-1176</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>223</v>
+        <v>-1174</v>
+      </c>
+      <c r="M2" s="2">
+        <v>191</v>
       </c>
       <c r="N2" s="2">
-        <v>2465</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>223</v>
+        <v>2500</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14006</v>
       </c>
       <c r="P2" s="2">
-        <v>15</v>
+        <v>14.998593002532596</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>223</v>
@@ -1905,13 +1905,13 @@
         <v>223</v>
       </c>
       <c r="T2" s="2">
-        <v>842785</v>
+        <v>853897</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V2" s="2">
-        <v>2462</v>
+        <v>2497</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>223</v>
@@ -1923,7 +1923,7 @@
         <v>223</v>
       </c>
       <c r="Z2" s="2">
-        <v>35893</v>
+        <v>36365</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>223</v>
@@ -1947,22 +1947,22 @@
         <v>223</v>
       </c>
       <c r="AH2" s="2">
-        <v>13.602251407129456</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>223</v>
+        <v>13.793864489075258</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>72.98</v>
       </c>
       <c r="AJ2" s="2">
-        <v>2675</v>
+        <v>2716</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL2" s="2">
-        <v>2255</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>223</v>
+        <v>2288</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>12430</v>
       </c>
       <c r="AN2" s="2">
         <v>7</v>
@@ -1971,31 +1971,31 @@
         <v>223</v>
       </c>
       <c r="AP2" s="2">
-        <v>2290</v>
+        <v>2320</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR2" s="2">
-        <v>1770</v>
+        <v>1795</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT2" s="2">
-        <v>12.44343891402715</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>223</v>
+        <v>12.624144780401677</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>64.77</v>
       </c>
       <c r="AV2" s="2">
-        <v>2925.65</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>223</v>
+        <v>2923.82</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>2758.39</v>
       </c>
       <c r="AX2" s="2">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>223</v>
@@ -2049,13 +2049,13 @@
         <v>223</v>
       </c>
       <c r="BP2" s="2">
-        <v>7208561.55</v>
+        <v>7306407.010000001</v>
       </c>
       <c r="BQ2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR2" s="2">
-        <v>5377541.27</v>
+        <v>5445227.949999999</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>223</v>
@@ -2067,43 +2067,43 @@
         <v>223</v>
       </c>
       <c r="BV2" s="2">
-        <v>5374386.41</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>223</v>
+        <v>5442073.089999999</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>23566201.44</v>
       </c>
       <c r="BX2" s="2">
-        <v>894901.1599999999</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>223</v>
+        <v>907899.9899999999</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>7852558.844</v>
       </c>
       <c r="BZ2" s="2">
-        <v>793948.98</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>223</v>
+        <v>808558.9299999999</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>7215310.65</v>
       </c>
       <c r="CB2" s="2">
-        <v>146.13999371808382</v>
+        <v>146.2409593261709</v>
       </c>
       <c r="CC2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD2" s="2">
-        <v>1688850.1400000001</v>
+        <v>1716458.92</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF2" s="2">
-        <v>8.55700612849066</v>
+        <v>8.560238377696608</v>
       </c>
       <c r="CG2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH2" s="2">
-        <v>200.92264257654696</v>
+        <v>201.00541372198543</v>
       </c>
       <c r="CI2" s="2" t="s">
         <v>223</v>
@@ -2145,58 +2145,58 @@
         <v>223</v>
       </c>
       <c r="CV2" s="2">
-        <v>2925.6456024340773</v>
+        <v>2923.824748</v>
       </c>
       <c r="CW2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX2" s="2">
-        <v>341.7440162271805</v>
+        <v>341.4044</v>
       </c>
       <c r="CY2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ2" s="2">
-        <v>23.480483659766527</v>
+        <v>23.48128695173931</v>
       </c>
       <c r="DA2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB2" s="2">
-        <v>11353</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>223</v>
+        <v>11325</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>2656</v>
       </c>
       <c r="DD2" s="2">
-        <v>2486</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>223</v>
+        <v>2483</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>1591</v>
       </c>
       <c r="DF2" s="2">
-        <v>1818</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>223</v>
+        <v>1816</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>1236</v>
       </c>
       <c r="DH2" s="2">
         <v>1342</v>
       </c>
-      <c r="DI2" s="2" t="s">
-        <v>223</v>
+      <c r="DI2" s="2">
+        <v>1046</v>
       </c>
       <c r="DJ2" s="2">
         <v>957</v>
       </c>
-      <c r="DK2" s="2" t="s">
-        <v>223</v>
+      <c r="DK2" s="2">
+        <v>840</v>
       </c>
       <c r="DL2" s="2">
         <v>899</v>
       </c>
-      <c r="DM2" s="2" t="s">
-        <v>223</v>
+      <c r="DM2" s="2">
+        <v>810</v>
       </c>
       <c r="DN2" s="2">
         <v>3198</v>
@@ -2241,16 +2241,16 @@
         <v>223</v>
       </c>
       <c r="EB2" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="EC2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED2" s="2">
-        <v>125</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>223</v>
+        <v>127</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>990</v>
       </c>
       <c r="EF2" s="2">
         <v>382</v>
@@ -2265,7 +2265,7 @@
         <v>223</v>
       </c>
       <c r="EJ2" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="EK2" s="2" t="s">
         <v>223</v>
@@ -2273,8 +2273,8 @@
       <c r="EL2" s="2">
         <v>84</v>
       </c>
-      <c r="EM2" s="2" t="s">
-        <v>223</v>
+      <c r="EM2" s="2">
+        <v>586</v>
       </c>
       <c r="EN2" s="2">
         <v>7</v>
@@ -2283,19 +2283,19 @@
         <v>223</v>
       </c>
       <c r="EP2" s="2">
-        <v>21320</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>223</v>
+        <v>21322</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>21888</v>
       </c>
       <c r="ER2" s="2">
-        <v>4.216697936210132</v>
+        <v>4.216302410655661</v>
       </c>
       <c r="ES2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET2" s="2">
-        <v>2682</v>
+        <v>2723</v>
       </c>
       <c r="EU2" s="2" t="s">
         <v>223</v>
@@ -2307,13 +2307,13 @@
         <v>223</v>
       </c>
       <c r="EX2" s="2">
-        <v>842399</v>
+        <v>853511</v>
       </c>
       <c r="EY2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ2" s="2">
-        <v>651532</v>
+        <v>659521</v>
       </c>
       <c r="FA2" s="2" t="s">
         <v>223</v>
@@ -2325,31 +2325,31 @@
         <v>223</v>
       </c>
       <c r="FD2" s="2">
-        <v>651146</v>
+        <v>659135</v>
       </c>
       <c r="FE2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF2" s="2">
-        <v>106411</v>
+        <v>107978</v>
       </c>
       <c r="FG2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH2" s="2">
-        <v>84842</v>
+        <v>86398</v>
       </c>
       <c r="FI2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ2" s="2">
-        <v>191253</v>
+        <v>194376</v>
       </c>
       <c r="FK2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL2" s="2">
-        <v>17.078402366863905</v>
+        <v>17.083748474481325</v>
       </c>
       <c r="FM2" s="2" t="s">
         <v>223</v>
@@ -2361,7 +2361,7 @@
         <v>223</v>
       </c>
       <c r="FP2" s="2">
-        <v>26571</v>
+        <v>26893</v>
       </c>
       <c r="FQ2" s="2" t="s">
         <v>223</v>
@@ -2373,49 +2373,49 @@
         <v>223</v>
       </c>
       <c r="FT2" s="2">
-        <v>26546</v>
+        <v>26868</v>
       </c>
       <c r="FU2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV2" s="2">
-        <v>49348</v>
+        <v>49983</v>
       </c>
       <c r="FW2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX2" s="2">
-        <v>40341</v>
+        <v>40847</v>
       </c>
       <c r="FY2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ2" s="2">
-        <v>13795</v>
+        <v>13979</v>
       </c>
       <c r="GA2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB2" s="2">
-        <v>8982</v>
+        <v>9111</v>
       </c>
       <c r="GC2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD2" s="2">
-        <v>22777</v>
+        <v>23090</v>
       </c>
       <c r="GE2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF2" s="2">
-        <v>20.01947261663286</v>
+        <v>19.9932</v>
       </c>
       <c r="GG2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH2" s="2">
-        <v>14.56105476673428</v>
+        <v>14.546</v>
       </c>
       <c r="GI2" s="2" t="s">
         <v>223</v>
@@ -2427,49 +2427,49 @@
         <v>223</v>
       </c>
       <c r="GL2" s="2">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="GM2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GN2" s="2">
-        <v>11793</v>
+        <v>11794</v>
       </c>
       <c r="GO2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP2" s="2">
-        <v>8882</v>
+        <v>8883</v>
       </c>
       <c r="GQ2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GR2" s="2">
-        <v>4244</v>
+        <v>4246</v>
       </c>
       <c r="GS2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT2" s="2">
-        <v>8193</v>
+        <v>8192</v>
       </c>
       <c r="GU2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV2" s="2">
-        <v>1544</v>
+        <v>1566</v>
       </c>
       <c r="GW2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX2" s="2">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="GY2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ2" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="HA2" s="2" t="s">
         <v>223</v>
@@ -2487,25 +2487,25 @@
         <v>223</v>
       </c>
       <c r="HF2" s="2">
-        <v>0.8832960477255779</v>
+        <v>0.8810135879544619</v>
       </c>
       <c r="HG2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH2" s="2">
-        <v>-781</v>
+        <v>-779</v>
       </c>
       <c r="HI2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ2" s="2">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="HK2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL2" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="HM2" s="2" t="s">
         <v>223</v>
@@ -2528,10 +2528,10 @@
         <v>202517</v>
       </c>
       <c r="F3" s="2">
-        <v>24916</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>24922</v>
+      </c>
+      <c r="G3" s="2">
+        <v>26279</v>
       </c>
       <c r="H3" s="2">
         <v>12663.200000000003</v>
@@ -2540,25 +2540,25 @@
         <v>223</v>
       </c>
       <c r="J3" s="2">
-        <v>9991503.5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>223</v>
+        <v>10179613.370000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>52961677.05</v>
       </c>
       <c r="L3" s="2">
-        <v>-1491</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>223</v>
+        <v>-1485</v>
+      </c>
+      <c r="M3" s="2">
+        <v>461</v>
       </c>
       <c r="N3" s="2">
-        <v>3233</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>223</v>
+        <v>3303</v>
+      </c>
+      <c r="O3" s="2">
+        <v>18523</v>
       </c>
       <c r="P3" s="2">
-        <v>14.398598275328958</v>
+        <v>14.39269029953284</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>223</v>
@@ -2570,13 +2570,13 @@
         <v>223</v>
       </c>
       <c r="T3" s="2">
-        <v>1204088</v>
+        <v>1226451</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V3" s="2">
-        <v>3227</v>
+        <v>3297</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>223</v>
@@ -2588,7 +2588,7 @@
         <v>223</v>
       </c>
       <c r="Z3" s="2">
-        <v>42566</v>
+        <v>43395</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>223</v>
@@ -2612,22 +2612,22 @@
         <v>223</v>
       </c>
       <c r="AH3" s="2">
-        <v>12.975598009311287</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>223</v>
+        <v>13.253350453414653</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>70.49</v>
       </c>
       <c r="AJ3" s="2">
-        <v>3434</v>
+        <v>3512</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL3" s="2">
-        <v>3002</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>223</v>
+        <v>3066</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>16349</v>
       </c>
       <c r="AN3" s="2">
         <v>22</v>
@@ -2636,31 +2636,31 @@
         <v>223</v>
       </c>
       <c r="AP3" s="2">
-        <v>3124</v>
+        <v>3191</v>
       </c>
       <c r="AQ3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR3" s="2">
-        <v>1987</v>
+        <v>2036</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT3" s="2">
-        <v>12.048482902552577</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>223</v>
+        <v>12.302383436321323</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>62.21</v>
       </c>
       <c r="AV3" s="2">
-        <v>3090.47</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>223</v>
+        <v>3081.93</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>2859.24</v>
       </c>
       <c r="AX3" s="2">
-        <v>1878</v>
+        <v>1923</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>223</v>
@@ -2714,13 +2714,13 @@
         <v>223</v>
       </c>
       <c r="BP3" s="2">
-        <v>9978840.3</v>
+        <v>10166950.17</v>
       </c>
       <c r="BQ3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR3" s="2">
-        <v>8202022.75</v>
+        <v>8352098.61</v>
       </c>
       <c r="BS3" s="2" t="s">
         <v>223</v>
@@ -2732,43 +2732,43 @@
         <v>223</v>
       </c>
       <c r="BV3" s="2">
-        <v>8189359.549999999</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>223</v>
+        <v>8339435.409999999</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>38697284.98</v>
       </c>
       <c r="BX3" s="2">
-        <v>852901.96</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>223</v>
+        <v>874932.0800000001</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>7935605.819</v>
       </c>
       <c r="BZ3" s="2">
-        <v>773638.7899999999</v>
-      </c>
-      <c r="CA3" s="2" t="s">
-        <v>223</v>
+        <v>787231.88</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>6328786.243</v>
       </c>
       <c r="CB3" s="2">
-        <v>170.99954646585658</v>
+        <v>170.97100050386297</v>
       </c>
       <c r="CC3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD3" s="2">
-        <v>1626540.7500000002</v>
+        <v>1662163.9599999997</v>
       </c>
       <c r="CE3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF3" s="2">
-        <v>8.297984449641554</v>
+        <v>8.300057132327343</v>
       </c>
       <c r="CG3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH3" s="2">
-        <v>234.72967861673635</v>
+        <v>234.5803288397281</v>
       </c>
       <c r="CI3" s="2" t="s">
         <v>223</v>
@@ -2810,61 +2810,61 @@
         <v>223</v>
       </c>
       <c r="CV3" s="2">
-        <v>3090.474327250232</v>
+        <v>3081.929570087799</v>
       </c>
       <c r="CW3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX3" s="2">
-        <v>371.96040828951436</v>
+        <v>370.848016954284</v>
       </c>
       <c r="CY3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ3" s="2">
-        <v>28.28755344641263</v>
+        <v>28.26249567922572</v>
       </c>
       <c r="DA3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB3" s="2">
-        <v>15146</v>
-      </c>
-      <c r="DC3" s="2" t="s">
-        <v>223</v>
+        <v>15093</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>4124</v>
       </c>
       <c r="DD3" s="2">
-        <v>3886</v>
-      </c>
-      <c r="DE3" s="2" t="s">
-        <v>223</v>
+        <v>3882</v>
+      </c>
+      <c r="DE3" s="2">
+        <v>2416</v>
       </c>
       <c r="DF3" s="2">
-        <v>2651</v>
-      </c>
-      <c r="DG3" s="2" t="s">
-        <v>223</v>
+        <v>2644</v>
+      </c>
+      <c r="DG3" s="2">
+        <v>1752</v>
       </c>
       <c r="DH3" s="2">
-        <v>1662</v>
-      </c>
-      <c r="DI3" s="2" t="s">
-        <v>223</v>
+        <v>1661</v>
+      </c>
+      <c r="DI3" s="2">
+        <v>1275</v>
       </c>
       <c r="DJ3" s="2">
         <v>1274</v>
       </c>
-      <c r="DK3" s="2" t="s">
-        <v>223</v>
+      <c r="DK3" s="2">
+        <v>1109</v>
       </c>
       <c r="DL3" s="2">
         <v>1255</v>
       </c>
-      <c r="DM3" s="2" t="s">
-        <v>223</v>
+      <c r="DM3" s="2">
+        <v>1127</v>
       </c>
       <c r="DN3" s="2">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="DO3" s="2" t="s">
         <v>223</v>
@@ -2906,16 +2906,16 @@
         <v>223</v>
       </c>
       <c r="EB3" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="EC3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED3" s="2">
-        <v>101</v>
-      </c>
-      <c r="EE3" s="2" t="s">
-        <v>223</v>
+        <v>106</v>
+      </c>
+      <c r="EE3" s="2">
+        <v>1380</v>
       </c>
       <c r="EF3" s="2">
         <v>413</v>
@@ -2930,16 +2930,16 @@
         <v>223</v>
       </c>
       <c r="EJ3" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="EK3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EL3" s="2">
-        <v>125</v>
-      </c>
-      <c r="EM3" s="2" t="s">
-        <v>223</v>
+        <v>126</v>
+      </c>
+      <c r="EM3" s="2">
+        <v>794</v>
       </c>
       <c r="EN3" s="2">
         <v>2</v>
@@ -2948,19 +2948,19 @@
         <v>223</v>
       </c>
       <c r="EP3" s="2">
-        <v>29107</v>
-      </c>
-      <c r="EQ3" s="2" t="s">
-        <v>223</v>
+        <v>29112</v>
+      </c>
+      <c r="EQ3" s="2">
+        <v>29790</v>
       </c>
       <c r="ER3" s="2">
-        <v>4.311677603325661</v>
+        <v>4.3109370706237975</v>
       </c>
       <c r="ES3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET3" s="2">
-        <v>3456</v>
+        <v>3534</v>
       </c>
       <c r="EU3" s="2" t="s">
         <v>223</v>
@@ -2972,13 +2972,13 @@
         <v>223</v>
       </c>
       <c r="EX3" s="2">
-        <v>1202548</v>
+        <v>1224911</v>
       </c>
       <c r="EY3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ3" s="2">
-        <v>1018763</v>
+        <v>1037329</v>
       </c>
       <c r="FA3" s="2" t="s">
         <v>223</v>
@@ -2990,31 +2990,31 @@
         <v>223</v>
       </c>
       <c r="FD3" s="2">
-        <v>1017223</v>
+        <v>1035789</v>
       </c>
       <c r="FE3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF3" s="2">
-        <v>102240</v>
+        <v>104900</v>
       </c>
       <c r="FG3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH3" s="2">
-        <v>83085</v>
+        <v>84514</v>
       </c>
       <c r="FI3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ3" s="2">
-        <v>185325</v>
+        <v>189414</v>
       </c>
       <c r="FK3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL3" s="2">
-        <v>20.60735923327058</v>
+        <v>20.59877393349009</v>
       </c>
       <c r="FM3" s="2" t="s">
         <v>223</v>
@@ -3026,7 +3026,7 @@
         <v>223</v>
       </c>
       <c r="FP3" s="2">
-        <v>38371</v>
+        <v>39017</v>
       </c>
       <c r="FQ3" s="2" t="s">
         <v>223</v>
@@ -3038,55 +3038,55 @@
         <v>223</v>
       </c>
       <c r="FT3" s="2">
-        <v>38291</v>
+        <v>38937</v>
       </c>
       <c r="FU3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV3" s="2">
-        <v>58469</v>
+        <v>59555</v>
       </c>
       <c r="FW3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX3" s="2">
-        <v>50541</v>
+        <v>51505</v>
       </c>
       <c r="FY3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ3" s="2">
-        <v>12250</v>
+        <v>12568</v>
       </c>
       <c r="GA3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB3" s="2">
-        <v>7848</v>
+        <v>7970</v>
       </c>
       <c r="GC3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD3" s="2">
-        <v>20098</v>
+        <v>20538</v>
       </c>
       <c r="GE3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF3" s="2">
-        <v>18.072997216207856</v>
+        <v>18.02603693611868</v>
       </c>
       <c r="GG3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH3" s="2">
-        <v>13.166099597896691</v>
+        <v>13.138056312443233</v>
       </c>
       <c r="GI3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GJ3" s="2">
-        <v>12277</v>
+        <v>12278</v>
       </c>
       <c r="GK3" s="2" t="s">
         <v>223</v>
@@ -3098,7 +3098,7 @@
         <v>223</v>
       </c>
       <c r="GN3" s="2">
-        <v>14178</v>
+        <v>14182</v>
       </c>
       <c r="GO3" s="2" t="s">
         <v>223</v>
@@ -3110,31 +3110,31 @@
         <v>223</v>
       </c>
       <c r="GR3" s="2">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="GS3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT3" s="2">
-        <v>8882</v>
+        <v>8886</v>
       </c>
       <c r="GU3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV3" s="2">
-        <v>2449</v>
+        <v>2497</v>
       </c>
       <c r="GW3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX3" s="2">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="GY3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ3" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="HA3" s="2" t="s">
         <v>223</v>
@@ -3152,25 +3152,25 @@
         <v>223</v>
       </c>
       <c r="HF3" s="2">
-        <v>0.9317129629629629</v>
+        <v>0.9295415959252971</v>
       </c>
       <c r="HG3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH3" s="2">
-        <v>-1156</v>
+        <v>-1151</v>
       </c>
       <c r="HI3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ3" s="2">
-        <v>1246</v>
+        <v>1268</v>
       </c>
       <c r="HK3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL3" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="HM3" s="2" t="s">
         <v>223</v>
@@ -3193,10 +3193,10 @@
         <v>202517</v>
       </c>
       <c r="F4" s="2">
-        <v>32714</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>223</v>
+        <v>32724</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35710</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -3205,25 +3205,25 @@
         <v>223</v>
       </c>
       <c r="J4" s="2">
-        <v>6941505.8900000015</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>223</v>
+        <v>7172136.44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>72434308.53</v>
       </c>
       <c r="L4" s="2">
-        <v>-2212</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>223</v>
+        <v>-2202</v>
+      </c>
+      <c r="M4" s="2">
+        <v>578</v>
       </c>
       <c r="N4" s="2">
-        <v>1901</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>223</v>
+        <v>1974</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24671</v>
       </c>
       <c r="P4" s="2">
-        <v>14.120704591394745</v>
+        <v>14.10347271438696</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>223</v>
@@ -3235,13 +3235,13 @@
         <v>223</v>
       </c>
       <c r="T4" s="2">
-        <v>860404</v>
+        <v>888120</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V4" s="2">
-        <v>1900</v>
+        <v>1973</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>223</v>
@@ -3253,7 +3253,7 @@
         <v>223</v>
       </c>
       <c r="Z4" s="2">
-        <v>25053</v>
+        <v>25917</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>223</v>
@@ -3277,22 +3277,22 @@
         <v>223</v>
       </c>
       <c r="AH4" s="2">
-        <v>5.810967781378004</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>223</v>
+        <v>6.032269893656032</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>69.09</v>
       </c>
       <c r="AJ4" s="2">
-        <v>1970</v>
+        <v>2048</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL4" s="2">
-        <v>1827</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>223</v>
+        <v>1894</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>21805</v>
       </c>
       <c r="AN4" s="2">
         <v>0</v>
@@ -3301,31 +3301,31 @@
         <v>223</v>
       </c>
       <c r="AP4" s="2">
-        <v>1859</v>
+        <v>1931</v>
       </c>
       <c r="AQ4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR4" s="2">
-        <v>1127</v>
+        <v>1164</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT4" s="2">
-        <v>5.584764932444824</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>223</v>
+        <v>5.787801002322455</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>61.06</v>
       </c>
       <c r="AV4" s="2">
-        <v>3651.5</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>223</v>
+        <v>3633.3</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>2936.01</v>
       </c>
       <c r="AX4" s="2">
-        <v>1087</v>
+        <v>1122</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>223</v>
@@ -3379,13 +3379,13 @@
         <v>223</v>
       </c>
       <c r="BP4" s="2">
-        <v>6941505.890000001</v>
+        <v>7169398.830000001</v>
       </c>
       <c r="BQ4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR4" s="2">
-        <v>5918457.09</v>
+        <v>6114179.640000001</v>
       </c>
       <c r="BS4" s="2" t="s">
         <v>223</v>
@@ -3397,43 +3397,43 @@
         <v>223</v>
       </c>
       <c r="BV4" s="2">
-        <v>5918457.09</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>223</v>
+        <v>6114179.640000001</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>53952868.19</v>
       </c>
       <c r="BX4" s="2">
-        <v>532616.9</v>
-      </c>
-      <c r="BY4" s="2" t="s">
-        <v>223</v>
+        <v>548486.06</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>11124534.49</v>
       </c>
       <c r="BZ4" s="2">
-        <v>419536.9</v>
-      </c>
-      <c r="CA4" s="2" t="s">
-        <v>223</v>
+        <v>433577.62999999995</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>7356905.85</v>
       </c>
       <c r="CB4" s="2">
-        <v>192.69114729069514</v>
+        <v>192.71129967487977</v>
       </c>
       <c r="CC4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD4" s="2">
-        <v>952153.7999999999</v>
+        <v>982063.6899999998</v>
       </c>
       <c r="CE4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF4" s="2">
-        <v>8.067728520555463</v>
+        <v>8.075638922668109</v>
       </c>
       <c r="CG4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH4" s="2">
-        <v>277.0728411767054</v>
+        <v>276.7348242466335</v>
       </c>
       <c r="CI4" s="2" t="s">
         <v>223</v>
@@ -3475,61 +3475,61 @@
         <v>223</v>
       </c>
       <c r="CV4" s="2">
-        <v>3651.50230931089</v>
+        <v>3633.301134751773</v>
       </c>
       <c r="CW4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX4" s="2">
-        <v>452.60599684376643</v>
+        <v>449.90881458966567</v>
       </c>
       <c r="CY4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ4" s="2">
-        <v>34.34335209356165</v>
+        <v>34.26785507581896</v>
       </c>
       <c r="DA4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB4" s="2">
-        <v>21460</v>
-      </c>
-      <c r="DC4" s="2" t="s">
-        <v>223</v>
+        <v>21430</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>5786</v>
       </c>
       <c r="DD4" s="2">
-        <v>5542</v>
-      </c>
-      <c r="DE4" s="2" t="s">
-        <v>223</v>
+        <v>5512</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>3550</v>
       </c>
       <c r="DF4" s="2">
-        <v>3811</v>
-      </c>
-      <c r="DG4" s="2" t="s">
-        <v>223</v>
+        <v>3808</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>2465</v>
       </c>
       <c r="DH4" s="2">
-        <v>2258</v>
-      </c>
-      <c r="DI4" s="2" t="s">
-        <v>223</v>
+        <v>2256</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>1692</v>
       </c>
       <c r="DJ4" s="2">
-        <v>1457</v>
-      </c>
-      <c r="DK4" s="2" t="s">
-        <v>223</v>
+        <v>1454</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>1360</v>
       </c>
       <c r="DL4" s="2">
-        <v>1664</v>
-      </c>
-      <c r="DM4" s="2" t="s">
-        <v>223</v>
+        <v>1663</v>
+      </c>
+      <c r="DM4" s="2">
+        <v>1388</v>
       </c>
       <c r="DN4" s="2">
-        <v>5379</v>
+        <v>5373</v>
       </c>
       <c r="DO4" s="2" t="s">
         <v>223</v>
@@ -3571,25 +3571,25 @@
         <v>223</v>
       </c>
       <c r="EB4" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EC4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED4" s="2">
-        <v>21</v>
-      </c>
-      <c r="EE4" s="2" t="s">
-        <v>223</v>
+        <v>22</v>
+      </c>
+      <c r="EE4" s="2">
+        <v>1823</v>
       </c>
       <c r="EF4" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="EG4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EH4" s="2">
-        <v>30.007077140835104</v>
+        <v>30.148619957537154</v>
       </c>
       <c r="EI4" s="2" t="s">
         <v>223</v>
@@ -3601,10 +3601,10 @@
         <v>223</v>
       </c>
       <c r="EL4" s="2">
-        <v>51</v>
-      </c>
-      <c r="EM4" s="2" t="s">
-        <v>223</v>
+        <v>56</v>
+      </c>
+      <c r="EM4" s="2">
+        <v>1043</v>
       </c>
       <c r="EN4" s="2">
         <v>0</v>
@@ -3613,19 +3613,19 @@
         <v>223</v>
       </c>
       <c r="EP4" s="2">
-        <v>38093</v>
-      </c>
-      <c r="EQ4" s="2" t="s">
-        <v>223</v>
+        <v>38097</v>
+      </c>
+      <c r="EQ4" s="2">
+        <v>40150</v>
       </c>
       <c r="ER4" s="2">
-        <v>4.368256635077311</v>
+        <v>4.365173110743628</v>
       </c>
       <c r="ES4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET4" s="2">
-        <v>1970</v>
+        <v>2048</v>
       </c>
       <c r="EU4" s="2" t="s">
         <v>223</v>
@@ -3637,13 +3637,13 @@
         <v>223</v>
       </c>
       <c r="EX4" s="2">
-        <v>860404</v>
+        <v>888120</v>
       </c>
       <c r="EY4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ4" s="2">
-        <v>750217</v>
+        <v>774804</v>
       </c>
       <c r="FA4" s="2" t="s">
         <v>223</v>
@@ -3655,31 +3655,31 @@
         <v>223</v>
       </c>
       <c r="FD4" s="2">
-        <v>750217</v>
+        <v>774804</v>
       </c>
       <c r="FE4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF4" s="2">
-        <v>65363</v>
+        <v>67174</v>
       </c>
       <c r="FG4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH4" s="2">
-        <v>44824</v>
+        <v>46298</v>
       </c>
       <c r="FI4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ4" s="2">
-        <v>110187</v>
+        <v>113472</v>
       </c>
       <c r="FK4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL4" s="2">
-        <v>23.884188318898513</v>
+        <v>23.863288282236613</v>
       </c>
       <c r="FM4" s="2" t="s">
         <v>223</v>
@@ -3691,7 +3691,7 @@
         <v>223</v>
       </c>
       <c r="FP4" s="2">
-        <v>24389</v>
+        <v>25195</v>
       </c>
       <c r="FQ4" s="2" t="s">
         <v>223</v>
@@ -3703,49 +3703,49 @@
         <v>223</v>
       </c>
       <c r="FT4" s="2">
-        <v>24389</v>
+        <v>25195</v>
       </c>
       <c r="FU4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV4" s="2">
-        <v>36024</v>
+        <v>37236</v>
       </c>
       <c r="FW4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX4" s="2">
-        <v>32038</v>
+        <v>33069</v>
       </c>
       <c r="FY4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ4" s="2">
-        <v>7649</v>
+        <v>7874</v>
       </c>
       <c r="GA4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB4" s="2">
-        <v>3986</v>
+        <v>4167</v>
       </c>
       <c r="GC4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD4" s="2">
-        <v>11635</v>
+        <v>12041</v>
       </c>
       <c r="GE4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF4" s="2">
-        <v>18.950026301946345</v>
+        <v>18.853596757852078</v>
       </c>
       <c r="GG4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH4" s="2">
-        <v>13.1788532351394</v>
+        <v>13.129179331306991</v>
       </c>
       <c r="GI4" s="2" t="s">
         <v>223</v>
@@ -3763,43 +3763,43 @@
         <v>223</v>
       </c>
       <c r="GN4" s="2">
-        <v>17605</v>
+        <v>17609</v>
       </c>
       <c r="GO4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP4" s="2">
-        <v>22618</v>
+        <v>22620</v>
       </c>
       <c r="GQ4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GR4" s="2">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="GS4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT4" s="2">
-        <v>12243</v>
+        <v>12242</v>
       </c>
       <c r="GU4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV4" s="2">
-        <v>1472</v>
+        <v>1536</v>
       </c>
       <c r="GW4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX4" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="GY4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ4" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="HA4" s="2" t="s">
         <v>223</v>
@@ -3817,25 +3817,25 @@
         <v>223</v>
       </c>
       <c r="HF4" s="2">
-        <v>0.9644670050761421</v>
+        <v>0.96337890625</v>
       </c>
       <c r="HG4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH4" s="2">
-        <v>-1643</v>
+        <v>-1641</v>
       </c>
       <c r="HI4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ4" s="2">
-        <v>772</v>
+        <v>809</v>
       </c>
       <c r="HK4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL4" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="HM4" s="2" t="s">
         <v>223</v>
@@ -3858,10 +3858,10 @@
         <v>202517</v>
       </c>
       <c r="F5" s="2">
-        <v>27120</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>223</v>
+        <v>27124</v>
+      </c>
+      <c r="G5" s="2">
+        <v>29154</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -3870,25 +3870,25 @@
         <v>223</v>
       </c>
       <c r="J5" s="2">
-        <v>2060977.83</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>223</v>
+        <v>2291633.92</v>
+      </c>
+      <c r="K5" s="2">
+        <v>59815502.16</v>
       </c>
       <c r="L5" s="2">
-        <v>-2129</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>223</v>
+        <v>-2125</v>
+      </c>
+      <c r="M5" s="2">
+        <v>266</v>
       </c>
       <c r="N5" s="2">
-        <v>556</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>223</v>
+        <v>631</v>
+      </c>
+      <c r="O5" s="2">
+        <v>20629</v>
       </c>
       <c r="P5" s="2">
-        <v>14.963000125423303</v>
+        <v>14.961123651868574</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>223</v>
@@ -3900,13 +3900,13 @@
         <v>223</v>
       </c>
       <c r="T5" s="2">
-        <v>248507</v>
+        <v>275882</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V5" s="2">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>223</v>
@@ -3918,7 +3918,7 @@
         <v>223</v>
       </c>
       <c r="Z5" s="2">
-        <v>7979</v>
+        <v>9018</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>223</v>
@@ -3942,22 +3942,22 @@
         <v>223</v>
       </c>
       <c r="AH5" s="2">
-        <v>2.050147492625369</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>223</v>
+        <v>2.326353045273559</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>70.76</v>
       </c>
       <c r="AJ5" s="2">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL5" s="2">
-        <v>382</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>223</v>
+        <v>455</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>18256</v>
       </c>
       <c r="AN5" s="2">
         <v>0</v>
@@ -3966,31 +3966,31 @@
         <v>223</v>
       </c>
       <c r="AP5" s="2">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="AQ5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR5" s="2">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT5" s="2">
-        <v>1.4085545722713864</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>223</v>
+        <v>1.6774811974635009</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>62.62</v>
       </c>
       <c r="AV5" s="2">
-        <v>3706.79</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>223</v>
+        <v>3631.75</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>2899.58</v>
       </c>
       <c r="AX5" s="2">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>223</v>
@@ -4044,13 +4044,13 @@
         <v>223</v>
       </c>
       <c r="BP5" s="2">
-        <v>2060977.8299999998</v>
+        <v>2291633.92</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR5" s="2">
-        <v>1726364.54</v>
+        <v>1910972.4300000002</v>
       </c>
       <c r="BS5" s="2" t="s">
         <v>223</v>
@@ -4062,43 +4062,43 @@
         <v>223</v>
       </c>
       <c r="BV5" s="2">
-        <v>1726364.54</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>223</v>
+        <v>1910972.4300000002</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>44174331.16</v>
       </c>
       <c r="BX5" s="2">
-        <v>143271.04</v>
-      </c>
-      <c r="BY5" s="2" t="s">
-        <v>223</v>
+        <v>160093.15</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>8402544.987</v>
       </c>
       <c r="BZ5" s="2">
-        <v>171737.25</v>
-      </c>
-      <c r="CA5" s="2" t="s">
-        <v>223</v>
+        <v>197873.34000000003</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>7238626.017</v>
       </c>
       <c r="CB5" s="2">
-        <v>187.07250884995915</v>
+        <v>184.74959045469203</v>
       </c>
       <c r="CC5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD5" s="2">
-        <v>315008.29000000004</v>
+        <v>357966.49</v>
       </c>
       <c r="CE5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF5" s="2">
-        <v>8.29343974214006</v>
+        <v>8.306572810114469</v>
       </c>
       <c r="CG5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH5" s="2">
-        <v>258.3002669507457</v>
+        <v>254.11775559991128</v>
       </c>
       <c r="CI5" s="2" t="s">
         <v>223</v>
@@ -4140,58 +4140,58 @@
         <v>223</v>
       </c>
       <c r="CV5" s="2">
-        <v>3706.7946582733816</v>
+        <v>3631.749477020602</v>
       </c>
       <c r="CW5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX5" s="2">
-        <v>446.955035971223</v>
+        <v>437.2139461172742</v>
       </c>
       <c r="CY5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ5" s="2">
-        <v>31.145130968793083</v>
+        <v>30.5923708139277</v>
       </c>
       <c r="DA5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB5" s="2">
-        <v>18214</v>
-      </c>
-      <c r="DC5" s="2" t="s">
-        <v>223</v>
+        <v>18162</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>4573</v>
       </c>
       <c r="DD5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="DE5" s="2" t="s">
-        <v>223</v>
+        <v>4984</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>2836</v>
       </c>
       <c r="DF5" s="2">
-        <v>3350</v>
-      </c>
-      <c r="DG5" s="2" t="s">
-        <v>223</v>
+        <v>3347</v>
+      </c>
+      <c r="DG5" s="2">
+        <v>2092</v>
       </c>
       <c r="DH5" s="2">
         <v>2145</v>
       </c>
-      <c r="DI5" s="2" t="s">
-        <v>223</v>
+      <c r="DI5" s="2">
+        <v>1573</v>
       </c>
       <c r="DJ5" s="2">
         <v>1324</v>
       </c>
-      <c r="DK5" s="2" t="s">
-        <v>223</v>
+      <c r="DK5" s="2">
+        <v>1192</v>
       </c>
       <c r="DL5" s="2">
         <v>1303</v>
       </c>
-      <c r="DM5" s="2" t="s">
-        <v>223</v>
+      <c r="DM5" s="2">
+        <v>1106</v>
       </c>
       <c r="DN5" s="2">
         <v>4772</v>
@@ -4236,25 +4236,25 @@
         <v>223</v>
       </c>
       <c r="EB5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EC5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED5" s="2">
-        <v>7</v>
-      </c>
-      <c r="EE5" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
+      </c>
+      <c r="EE5" s="2">
+        <v>1470</v>
       </c>
       <c r="EF5" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="EG5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EH5" s="2">
-        <v>32.98153034300791</v>
+        <v>33.11345646437995</v>
       </c>
       <c r="EI5" s="2" t="s">
         <v>223</v>
@@ -4268,8 +4268,8 @@
       <c r="EL5" s="2">
         <v>10</v>
       </c>
-      <c r="EM5" s="2" t="s">
-        <v>223</v>
+      <c r="EM5" s="2">
+        <v>903</v>
       </c>
       <c r="EN5" s="2">
         <v>0</v>
@@ -4278,37 +4278,37 @@
         <v>223</v>
       </c>
       <c r="EP5" s="2">
-        <v>31892</v>
-      </c>
-      <c r="EQ5" s="2" t="s">
-        <v>223</v>
+        <v>31896</v>
+      </c>
+      <c r="EQ5" s="2">
+        <v>33025</v>
       </c>
       <c r="ER5" s="2">
-        <v>4.085664116392826</v>
+        <v>4.085151743165287</v>
       </c>
       <c r="ES5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET5" s="2">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="EU5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EV5" s="2">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="EW5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EX5" s="2">
-        <v>248507</v>
+        <v>275882</v>
       </c>
       <c r="EY5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ5" s="2">
-        <v>212530</v>
+        <v>235036</v>
       </c>
       <c r="FA5" s="2" t="s">
         <v>223</v>
@@ -4320,31 +4320,31 @@
         <v>223</v>
       </c>
       <c r="FD5" s="2">
-        <v>212530</v>
+        <v>235036</v>
       </c>
       <c r="FE5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF5" s="2">
-        <v>17714</v>
+        <v>19755</v>
       </c>
       <c r="FG5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH5" s="2">
-        <v>18263</v>
+        <v>21091</v>
       </c>
       <c r="FI5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ5" s="2">
-        <v>35977</v>
+        <v>40846</v>
       </c>
       <c r="FK5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL5" s="2">
-        <v>22.55668512299174</v>
+        <v>22.241373750403095</v>
       </c>
       <c r="FM5" s="2" t="s">
         <v>223</v>
@@ -4356,7 +4356,7 @@
         <v>223</v>
       </c>
       <c r="FP5" s="2">
-        <v>7340</v>
+        <v>8173</v>
       </c>
       <c r="FQ5" s="2" t="s">
         <v>223</v>
@@ -4368,49 +4368,49 @@
         <v>223</v>
       </c>
       <c r="FT5" s="2">
-        <v>7340</v>
+        <v>8173</v>
       </c>
       <c r="FU5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV5" s="2">
-        <v>11017</v>
+        <v>12404</v>
       </c>
       <c r="FW5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX5" s="2">
-        <v>9381</v>
+        <v>10522</v>
       </c>
       <c r="FY5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ5" s="2">
-        <v>2041</v>
+        <v>2349</v>
       </c>
       <c r="GA5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB5" s="2">
-        <v>1636</v>
+        <v>1882</v>
       </c>
       <c r="GC5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD5" s="2">
-        <v>3677</v>
+        <v>4231</v>
       </c>
       <c r="GE5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF5" s="2">
-        <v>19.81474820143885</v>
+        <v>19.65768621236133</v>
       </c>
       <c r="GG5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH5" s="2">
-        <v>14.350719424460431</v>
+        <v>14.291600633914422</v>
       </c>
       <c r="GI5" s="2" t="s">
         <v>223</v>
@@ -4428,43 +4428,43 @@
         <v>223</v>
       </c>
       <c r="GN5" s="2">
-        <v>15859</v>
+        <v>15863</v>
       </c>
       <c r="GO5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP5" s="2">
-        <v>19098</v>
+        <v>19100</v>
       </c>
       <c r="GQ5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GR5" s="2">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="GS5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT5" s="2">
-        <v>9404</v>
+        <v>9405</v>
       </c>
       <c r="GU5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV5" s="2">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="GW5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX5" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="GY5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ5" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="HA5" s="2" t="s">
         <v>223</v>
@@ -4482,25 +4482,25 @@
         <v>223</v>
       </c>
       <c r="HF5" s="2">
-        <v>0.9824868651488616</v>
+        <v>0.978328173374613</v>
       </c>
       <c r="HG5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH5" s="2">
-        <v>-1296</v>
+        <v>-1294</v>
       </c>
       <c r="HI5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ5" s="2">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="HK5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="HM5" s="2" t="s">
         <v>223</v>
@@ -5188,10 +5188,10 @@
         <v>202517</v>
       </c>
       <c r="F7" s="2">
-        <v>19289</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>223</v>
+        <v>19297</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20900</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -5200,25 +5200,25 @@
         <v>223</v>
       </c>
       <c r="J7" s="2">
-        <v>2305556.17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>223</v>
+        <v>2426891.74</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40183897.99</v>
       </c>
       <c r="L7" s="2">
-        <v>-1365</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>223</v>
+        <v>-1358</v>
+      </c>
+      <c r="M7" s="2">
+        <v>324</v>
       </c>
       <c r="N7" s="2">
-        <v>710</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>223</v>
+        <v>750</v>
+      </c>
+      <c r="O7" s="2">
+        <v>15043</v>
       </c>
       <c r="P7" s="2">
-        <v>14.838852097130243</v>
+        <v>14.818575086077516</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>223</v>
@@ -5230,13 +5230,13 @@
         <v>223</v>
       </c>
       <c r="T7" s="2">
-        <v>272765</v>
+        <v>286696</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V7" s="2">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>223</v>
@@ -5248,7 +5248,7 @@
         <v>223</v>
       </c>
       <c r="Z7" s="2">
-        <v>10263</v>
+        <v>10867</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>223</v>
@@ -5272,22 +5272,22 @@
         <v>223</v>
       </c>
       <c r="AH7" s="2">
-        <v>3.6808543729586813</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>223</v>
+        <v>3.8866144996631604</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>71.98</v>
       </c>
       <c r="AJ7" s="2">
-        <v>736</v>
+        <v>776</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL7" s="2">
-        <v>678</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>223</v>
+        <v>713</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>13343</v>
       </c>
       <c r="AN7" s="2">
         <v>0</v>
@@ -5296,31 +5296,31 @@
         <v>223</v>
       </c>
       <c r="AP7" s="2">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="AQ7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR7" s="2">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT7" s="2">
-        <v>3.514956711078853</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>223</v>
+        <v>3.6948748510131106</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>63.84</v>
       </c>
       <c r="AV7" s="2">
-        <v>3247.26</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>223</v>
+        <v>3235.86</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>2671.27</v>
       </c>
       <c r="AX7" s="2">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="AY7" s="2" t="s">
         <v>223</v>
@@ -5374,13 +5374,13 @@
         <v>223</v>
       </c>
       <c r="BP7" s="2">
-        <v>2305556.17</v>
+        <v>2426891.7400000007</v>
       </c>
       <c r="BQ7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR7" s="2">
-        <v>1785245.4100000001</v>
+        <v>1865617.71</v>
       </c>
       <c r="BS7" s="2" t="s">
         <v>223</v>
@@ -5392,43 +5392,43 @@
         <v>223</v>
       </c>
       <c r="BV7" s="2">
-        <v>1785245.4100000001</v>
-      </c>
-      <c r="BW7" s="2" t="s">
-        <v>223</v>
+        <v>1865617.71</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>23031047.29</v>
       </c>
       <c r="BX7" s="2">
-        <v>279414.80000000005</v>
-      </c>
-      <c r="BY7" s="2" t="s">
-        <v>223</v>
+        <v>298058.75000000006</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>10514150.1</v>
       </c>
       <c r="BZ7" s="2">
-        <v>208580.96</v>
-      </c>
-      <c r="CA7" s="2" t="s">
-        <v>223</v>
+        <v>229160.28000000003</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>6638700.601</v>
       </c>
       <c r="CB7" s="2">
-        <v>164.19001353083607</v>
+        <v>162.88957245452715</v>
       </c>
       <c r="CC7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD7" s="2">
-        <v>487995.76</v>
+        <v>527219.0299999999</v>
       </c>
       <c r="CE7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF7" s="2">
-        <v>8.452536689091342</v>
+        <v>8.465035228953317</v>
       </c>
       <c r="CG7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH7" s="2">
-        <v>224.64739062652245</v>
+        <v>223.3267451918653</v>
       </c>
       <c r="CI7" s="2" t="s">
         <v>223</v>
@@ -5470,61 +5470,61 @@
         <v>223</v>
       </c>
       <c r="CV7" s="2">
-        <v>3247.2622112676054</v>
+        <v>3235.8556533333335</v>
       </c>
       <c r="CW7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX7" s="2">
-        <v>384.17605633802816</v>
+        <v>382.2613333333333</v>
       </c>
       <c r="CY7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ7" s="2">
-        <v>26.577511448894086</v>
+        <v>26.382258212938254</v>
       </c>
       <c r="DA7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB7" s="2">
-        <v>13903</v>
-      </c>
-      <c r="DC7" s="2" t="s">
-        <v>223</v>
+        <v>13879</v>
+      </c>
+      <c r="DC7" s="2">
+        <v>3177</v>
       </c>
       <c r="DD7" s="2">
-        <v>2854</v>
-      </c>
-      <c r="DE7" s="2" t="s">
-        <v>223</v>
+        <v>2847</v>
+      </c>
+      <c r="DE7" s="2">
+        <v>1661</v>
       </c>
       <c r="DF7" s="2">
-        <v>1822</v>
-      </c>
-      <c r="DG7" s="2" t="s">
-        <v>223</v>
+        <v>1821</v>
+      </c>
+      <c r="DG7" s="2">
+        <v>1241</v>
       </c>
       <c r="DH7" s="2">
-        <v>1386</v>
-      </c>
-      <c r="DI7" s="2" t="s">
-        <v>223</v>
+        <v>1383</v>
+      </c>
+      <c r="DI7" s="2">
+        <v>1057</v>
       </c>
       <c r="DJ7" s="2">
-        <v>932</v>
-      </c>
-      <c r="DK7" s="2" t="s">
-        <v>223</v>
+        <v>931</v>
+      </c>
+      <c r="DK7" s="2">
+        <v>814</v>
       </c>
       <c r="DL7" s="2">
         <v>1043</v>
       </c>
-      <c r="DM7" s="2" t="s">
-        <v>223</v>
+      <c r="DM7" s="2">
+        <v>897</v>
       </c>
       <c r="DN7" s="2">
-        <v>3361</v>
+        <v>3357</v>
       </c>
       <c r="DO7" s="2" t="s">
         <v>223</v>
@@ -5566,25 +5566,25 @@
         <v>223</v>
       </c>
       <c r="EB7" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="EC7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED7" s="2">
-        <v>14</v>
-      </c>
-      <c r="EE7" s="2" t="s">
-        <v>223</v>
+        <v>17</v>
+      </c>
+      <c r="EE7" s="2">
+        <v>1132</v>
       </c>
       <c r="EF7" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="EG7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EH7" s="2">
-        <v>36.77354709418837</v>
+        <v>36.87374749498998</v>
       </c>
       <c r="EI7" s="2" t="s">
         <v>223</v>
@@ -5596,10 +5596,10 @@
         <v>223</v>
       </c>
       <c r="EL7" s="2">
-        <v>17</v>
-      </c>
-      <c r="EM7" s="2" t="s">
-        <v>223</v>
+        <v>19</v>
+      </c>
+      <c r="EM7" s="2">
+        <v>568</v>
       </c>
       <c r="EN7" s="2">
         <v>0</v>
@@ -5608,37 +5608,37 @@
         <v>223</v>
       </c>
       <c r="EP7" s="2">
-        <v>22650</v>
-      </c>
-      <c r="EQ7" s="2" t="s">
-        <v>223</v>
+        <v>22654</v>
+      </c>
+      <c r="EQ7" s="2">
+        <v>23668</v>
       </c>
       <c r="ER7" s="2">
-        <v>4.60485651214128</v>
+        <v>4.604043436037786</v>
       </c>
       <c r="ES7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET7" s="2">
-        <v>736</v>
+        <v>776</v>
       </c>
       <c r="EU7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EV7" s="2">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="EW7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EX7" s="2">
-        <v>272765</v>
+        <v>286696</v>
       </c>
       <c r="EY7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ7" s="2">
-        <v>215970</v>
+        <v>225678</v>
       </c>
       <c r="FA7" s="2" t="s">
         <v>223</v>
@@ -5650,31 +5650,31 @@
         <v>223</v>
       </c>
       <c r="FD7" s="2">
-        <v>215970</v>
+        <v>225678</v>
       </c>
       <c r="FE7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF7" s="2">
-        <v>34661</v>
+        <v>36925</v>
       </c>
       <c r="FG7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH7" s="2">
-        <v>22134</v>
+        <v>24093</v>
       </c>
       <c r="FI7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ7" s="2">
-        <v>56795</v>
+        <v>61018</v>
       </c>
       <c r="FK7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL7" s="2">
-        <v>19.42493946731235</v>
+        <v>19.242633733807637</v>
       </c>
       <c r="FM7" s="2" t="s">
         <v>223</v>
@@ -5686,7 +5686,7 @@
         <v>223</v>
       </c>
       <c r="FP7" s="2">
-        <v>7761</v>
+        <v>8129</v>
       </c>
       <c r="FQ7" s="2" t="s">
         <v>223</v>
@@ -5698,49 +5698,49 @@
         <v>223</v>
       </c>
       <c r="FT7" s="2">
-        <v>7761</v>
+        <v>8129</v>
       </c>
       <c r="FU7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV7" s="2">
-        <v>14042</v>
+        <v>14899</v>
       </c>
       <c r="FW7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX7" s="2">
-        <v>11692</v>
+        <v>12314</v>
       </c>
       <c r="FY7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ7" s="2">
-        <v>3931</v>
+        <v>4185</v>
       </c>
       <c r="GA7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB7" s="2">
-        <v>2350</v>
+        <v>2585</v>
       </c>
       <c r="GC7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD7" s="2">
-        <v>6281</v>
+        <v>6770</v>
       </c>
       <c r="GE7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF7" s="2">
-        <v>19.777464788732395</v>
+        <v>19.865333333333332</v>
       </c>
       <c r="GG7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH7" s="2">
-        <v>14.454929577464789</v>
+        <v>14.489333333333333</v>
       </c>
       <c r="GI7" s="2" t="s">
         <v>223</v>
@@ -5758,13 +5758,13 @@
         <v>223</v>
       </c>
       <c r="GN7" s="2">
-        <v>11433</v>
+        <v>11437</v>
       </c>
       <c r="GO7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP7" s="2">
-        <v>8617</v>
+        <v>8619</v>
       </c>
       <c r="GQ7" s="2" t="s">
         <v>223</v>
@@ -5776,25 +5776,25 @@
         <v>223</v>
       </c>
       <c r="GT7" s="2">
-        <v>7259</v>
+        <v>7261</v>
       </c>
       <c r="GU7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV7" s="2">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="GW7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX7" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="GY7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ7" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="HA7" s="2" t="s">
         <v>223</v>
@@ -5812,25 +5812,25 @@
         <v>223</v>
       </c>
       <c r="HF7" s="2">
-        <v>0.9565217391304348</v>
+        <v>0.9548969072164949</v>
       </c>
       <c r="HG7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH7" s="2">
-        <v>-1029</v>
+        <v>-1026</v>
       </c>
       <c r="HI7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ7" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="HK7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL7" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="HM7" s="2" t="s">
         <v>223</v>
@@ -5853,10 +5853,10 @@
         <v>202517</v>
       </c>
       <c r="F8" s="2">
-        <v>20076</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>223</v>
+        <v>20079</v>
+      </c>
+      <c r="G8" s="2">
+        <v>21562</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -5865,25 +5865,25 @@
         <v>223</v>
       </c>
       <c r="J8" s="2">
-        <v>3108568.7199999997</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>223</v>
+        <v>3244560.6899999995</v>
+      </c>
+      <c r="K8" s="2">
+        <v>43850129.59</v>
       </c>
       <c r="L8" s="2">
-        <v>-1371</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>223</v>
+        <v>-1367</v>
+      </c>
+      <c r="M8" s="2">
+        <v>311</v>
       </c>
       <c r="N8" s="2">
-        <v>902</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>223</v>
+        <v>948</v>
+      </c>
+      <c r="O8" s="2">
+        <v>15412</v>
       </c>
       <c r="P8" s="2">
-        <v>14.802240706161943</v>
+        <v>14.796741067639822</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>223</v>
@@ -5895,13 +5895,13 @@
         <v>223</v>
       </c>
       <c r="T8" s="2">
-        <v>377636</v>
+        <v>393901</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V8" s="2">
-        <v>902</v>
+        <v>948</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>223</v>
@@ -5913,7 +5913,7 @@
         <v>223</v>
       </c>
       <c r="Z8" s="2">
-        <v>12092</v>
+        <v>12681</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>223</v>
@@ -5937,22 +5937,22 @@
         <v>223</v>
       </c>
       <c r="AH8" s="2">
-        <v>4.492926877864116</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>223</v>
+        <v>4.721350664873749</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>71.48</v>
       </c>
       <c r="AJ8" s="2">
-        <v>928</v>
+        <v>977</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL8" s="2">
-        <v>859</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>223</v>
+        <v>903</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>13660</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -5961,31 +5961,31 @@
         <v>223</v>
       </c>
       <c r="AP8" s="2">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="AQ8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR8" s="2">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT8" s="2">
-        <v>4.278740785016936</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>223</v>
+        <v>4.497235918123413</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>63.35</v>
       </c>
       <c r="AV8" s="2">
-        <v>3446.31</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>223</v>
+        <v>3422.53</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>2845.19</v>
       </c>
       <c r="AX8" s="2">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="AY8" s="2" t="s">
         <v>223</v>
@@ -6039,13 +6039,13 @@
         <v>223</v>
       </c>
       <c r="BP8" s="2">
-        <v>3108568.7199999997</v>
+        <v>3244560.69</v>
       </c>
       <c r="BQ8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR8" s="2">
-        <v>2571509.63</v>
+        <v>2677520.27</v>
       </c>
       <c r="BS8" s="2" t="s">
         <v>223</v>
@@ -6057,43 +6057,43 @@
         <v>223</v>
       </c>
       <c r="BV8" s="2">
-        <v>2571509.63</v>
-      </c>
-      <c r="BW8" s="2" t="s">
-        <v>223</v>
+        <v>2677520.27</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>31278308.46</v>
       </c>
       <c r="BX8" s="2">
-        <v>245468.07</v>
-      </c>
-      <c r="BY8" s="2" t="s">
-        <v>223</v>
+        <v>253927.42000000004</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>7224277.45</v>
       </c>
       <c r="BZ8" s="2">
-        <v>257086.02000000002</v>
-      </c>
-      <c r="CA8" s="2" t="s">
-        <v>223</v>
+        <v>275863</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>5347543.685</v>
       </c>
       <c r="CB8" s="2">
-        <v>185.83026781444283</v>
+        <v>184.7910177696776</v>
       </c>
       <c r="CC8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD8" s="2">
-        <v>502554.09</v>
+        <v>529790.4199999999</v>
       </c>
       <c r="CE8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF8" s="2">
-        <v>8.231653549979345</v>
+        <v>8.23699531100454</v>
       </c>
       <c r="CG8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH8" s="2">
-        <v>257.0764737016209</v>
+        <v>255.86000236574398</v>
       </c>
       <c r="CI8" s="2" t="s">
         <v>223</v>
@@ -6135,61 +6135,61 @@
         <v>223</v>
       </c>
       <c r="CV8" s="2">
-        <v>3446.3067849223944</v>
+        <v>3422.532373417721</v>
       </c>
       <c r="CW8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX8" s="2">
-        <v>418.66518847006654</v>
+        <v>415.50738396624473</v>
       </c>
       <c r="CY8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ8" s="2">
-        <v>31.230234866027125</v>
+        <v>31.06229792603107</v>
       </c>
       <c r="DA8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB8" s="2">
-        <v>13716</v>
-      </c>
-      <c r="DC8" s="2" t="s">
-        <v>223</v>
+        <v>13685</v>
+      </c>
+      <c r="DC8" s="2">
+        <v>3176</v>
       </c>
       <c r="DD8" s="2">
-        <v>3277</v>
-      </c>
-      <c r="DE8" s="2" t="s">
-        <v>223</v>
+        <v>3270</v>
+      </c>
+      <c r="DE8" s="2">
+        <v>2009</v>
       </c>
       <c r="DF8" s="2">
-        <v>2181</v>
-      </c>
-      <c r="DG8" s="2" t="s">
-        <v>223</v>
+        <v>2176</v>
+      </c>
+      <c r="DG8" s="2">
+        <v>1396</v>
       </c>
       <c r="DH8" s="2">
         <v>1402</v>
       </c>
-      <c r="DI8" s="2" t="s">
-        <v>223</v>
+      <c r="DI8" s="2">
+        <v>1083</v>
       </c>
       <c r="DJ8" s="2">
         <v>1032</v>
       </c>
-      <c r="DK8" s="2" t="s">
-        <v>223</v>
+      <c r="DK8" s="2">
+        <v>935</v>
       </c>
       <c r="DL8" s="2">
-        <v>1054</v>
-      </c>
-      <c r="DM8" s="2" t="s">
-        <v>223</v>
+        <v>1053</v>
+      </c>
+      <c r="DM8" s="2">
+        <v>906</v>
       </c>
       <c r="DN8" s="2">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="DO8" s="2" t="s">
         <v>223</v>
@@ -6231,16 +6231,16 @@
         <v>223</v>
       </c>
       <c r="EB8" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="EC8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED8" s="2">
-        <v>23</v>
-      </c>
-      <c r="EE8" s="2" t="s">
-        <v>223</v>
+        <v>24</v>
+      </c>
+      <c r="EE8" s="2">
+        <v>1108</v>
       </c>
       <c r="EF8" s="2">
         <v>378</v>
@@ -6261,10 +6261,10 @@
         <v>223</v>
       </c>
       <c r="EL8" s="2">
-        <v>18</v>
-      </c>
-      <c r="EM8" s="2" t="s">
-        <v>223</v>
+        <v>19</v>
+      </c>
+      <c r="EM8" s="2">
+        <v>644</v>
       </c>
       <c r="EN8" s="2">
         <v>0</v>
@@ -6273,19 +6273,19 @@
         <v>223</v>
       </c>
       <c r="EP8" s="2">
-        <v>23564</v>
-      </c>
-      <c r="EQ8" s="2" t="s">
-        <v>223</v>
+        <v>23566</v>
+      </c>
+      <c r="EQ8" s="2">
+        <v>24486</v>
       </c>
       <c r="ER8" s="2">
-        <v>4.472924800543201</v>
+        <v>4.468301790715437</v>
       </c>
       <c r="ES8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET8" s="2">
-        <v>928</v>
+        <v>977</v>
       </c>
       <c r="EU8" s="2" t="s">
         <v>223</v>
@@ -6297,13 +6297,13 @@
         <v>223</v>
       </c>
       <c r="EX8" s="2">
-        <v>377636</v>
+        <v>393901</v>
       </c>
       <c r="EY8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ8" s="2">
-        <v>320076</v>
+        <v>333484</v>
       </c>
       <c r="FA8" s="2" t="s">
         <v>223</v>
@@ -6315,31 +6315,31 @@
         <v>223</v>
       </c>
       <c r="FD8" s="2">
-        <v>320076</v>
+        <v>333484</v>
       </c>
       <c r="FE8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF8" s="2">
-        <v>30050</v>
+        <v>30942</v>
       </c>
       <c r="FG8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH8" s="2">
-        <v>27510</v>
+        <v>29475</v>
       </c>
       <c r="FI8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ8" s="2">
-        <v>57560</v>
+        <v>60417</v>
       </c>
       <c r="FK8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL8" s="2">
-        <v>22.57508369201339</v>
+        <v>22.434274974370656</v>
       </c>
       <c r="FM8" s="2" t="s">
         <v>223</v>
@@ -6351,7 +6351,7 @@
         <v>223</v>
       </c>
       <c r="FP8" s="2">
-        <v>10961</v>
+        <v>11445</v>
       </c>
       <c r="FQ8" s="2" t="s">
         <v>223</v>
@@ -6363,49 +6363,49 @@
         <v>223</v>
       </c>
       <c r="FT8" s="2">
-        <v>10961</v>
+        <v>11445</v>
       </c>
       <c r="FU8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV8" s="2">
-        <v>16728</v>
+        <v>17558</v>
       </c>
       <c r="FW8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX8" s="2">
-        <v>14314</v>
+        <v>14952</v>
       </c>
       <c r="FY8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ8" s="2">
-        <v>3353</v>
+        <v>3507</v>
       </c>
       <c r="GA8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB8" s="2">
-        <v>2414</v>
+        <v>2606</v>
       </c>
       <c r="GC8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD8" s="2">
-        <v>5767</v>
+        <v>6113</v>
       </c>
       <c r="GE8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF8" s="2">
-        <v>18.545454545454547</v>
+        <v>18.5210970464135</v>
       </c>
       <c r="GG8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH8" s="2">
-        <v>13.405764966740577</v>
+        <v>13.376582278481013</v>
       </c>
       <c r="GI8" s="2" t="s">
         <v>223</v>
@@ -6423,7 +6423,7 @@
         <v>223</v>
       </c>
       <c r="GN8" s="2">
-        <v>11338</v>
+        <v>11342</v>
       </c>
       <c r="GO8" s="2" t="s">
         <v>223</v>
@@ -6435,31 +6435,31 @@
         <v>223</v>
       </c>
       <c r="GR8" s="2">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="GS8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT8" s="2">
-        <v>7334</v>
+        <v>7335</v>
       </c>
       <c r="GU8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV8" s="2">
-        <v>706</v>
+        <v>741</v>
       </c>
       <c r="GW8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX8" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="GY8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ8" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="HA8" s="2" t="s">
         <v>223</v>
@@ -6477,25 +6477,25 @@
         <v>223</v>
       </c>
       <c r="HF8" s="2">
-        <v>0.9709051724137931</v>
+        <v>0.9641760491299898</v>
       </c>
       <c r="HG8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH8" s="2">
-        <v>-1031</v>
+        <v>-1029</v>
       </c>
       <c r="HI8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ8" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="HK8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL8" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="HM8" s="2" t="s">
         <v>223</v>
@@ -17823,10 +17823,10 @@
         <v>202517</v>
       </c>
       <c r="F26" s="2">
-        <v>26635</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>223</v>
+        <v>26639</v>
+      </c>
+      <c r="G26" s="2">
+        <v>27820</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -17835,25 +17835,25 @@
         <v>223</v>
       </c>
       <c r="J26" s="2">
-        <v>2081548.5199999998</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>223</v>
+        <v>2395108.59</v>
+      </c>
+      <c r="K26" s="2">
+        <v>58692146.05</v>
       </c>
       <c r="L26" s="2">
-        <v>-2210</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>223</v>
+        <v>-2206</v>
+      </c>
+      <c r="M26" s="2">
+        <v>72</v>
       </c>
       <c r="N26" s="2">
-        <v>562</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>223</v>
+        <v>654</v>
+      </c>
+      <c r="O26" s="2">
+        <v>20356</v>
       </c>
       <c r="P26" s="2">
-        <v>15.651127438560932</v>
+        <v>15.646473922543464</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>223</v>
@@ -17865,13 +17865,13 @@
         <v>223</v>
       </c>
       <c r="T26" s="2">
-        <v>249277</v>
+        <v>287652</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V26" s="2">
-        <v>562</v>
+        <v>654</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>223</v>
@@ -17883,7 +17883,7 @@
         <v>223</v>
       </c>
       <c r="Z26" s="2">
-        <v>8758</v>
+        <v>10117</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>223</v>
@@ -17907,22 +17907,22 @@
         <v>223</v>
       </c>
       <c r="AH26" s="2">
-        <v>2.110005631687629</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>223</v>
+        <v>2.4550471113780548</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>73.17</v>
       </c>
       <c r="AJ26" s="2">
-        <v>578</v>
+        <v>671</v>
       </c>
       <c r="AK26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL26" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM26" s="2" t="s">
-        <v>223</v>
+        <v>483</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>18040</v>
       </c>
       <c r="AN26" s="2">
         <v>0</v>
@@ -17931,31 +17931,31 @@
         <v>223</v>
       </c>
       <c r="AP26" s="2">
-        <v>561</v>
+        <v>651</v>
       </c>
       <c r="AQ26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR26" s="2">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT26" s="2">
-        <v>1.4792566172329642</v>
-      </c>
-      <c r="AU26" s="2" t="s">
-        <v>223</v>
+        <v>1.8131311235406733</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>64.85</v>
       </c>
       <c r="AV26" s="2">
-        <v>3703.82</v>
-      </c>
-      <c r="AW26" s="2" t="s">
-        <v>223</v>
+        <v>3662.25</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>2883.28</v>
       </c>
       <c r="AX26" s="2">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="AY26" s="2" t="s">
         <v>223</v>
@@ -17973,7 +17973,7 @@
         <v>223</v>
       </c>
       <c r="BD26" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BE26" s="2" t="s">
         <v>223</v>
@@ -18009,13 +18009,13 @@
         <v>223</v>
       </c>
       <c r="BP26" s="2">
-        <v>2081548.5199999998</v>
+        <v>2395108.59</v>
       </c>
       <c r="BQ26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR26" s="2">
-        <v>1718229.1199999996</v>
+        <v>1973627.8699999999</v>
       </c>
       <c r="BS26" s="2" t="s">
         <v>223</v>
@@ -18027,43 +18027,43 @@
         <v>223</v>
       </c>
       <c r="BV26" s="2">
-        <v>1718229.1199999996</v>
-      </c>
-      <c r="BW26" s="2" t="s">
-        <v>223</v>
+        <v>1973627.8699999999</v>
+      </c>
+      <c r="BW26" s="2">
+        <v>42884721.22</v>
       </c>
       <c r="BX26" s="2">
-        <v>133364.92999999996</v>
-      </c>
-      <c r="BY26" s="2" t="s">
-        <v>223</v>
+        <v>155199.78</v>
+      </c>
+      <c r="BY26" s="2">
+        <v>8384534.546</v>
       </c>
       <c r="BZ26" s="2">
-        <v>210369.46999999997</v>
-      </c>
-      <c r="CA26" s="2" t="s">
-        <v>223</v>
+        <v>247282.72000000006</v>
+      </c>
+      <c r="CA26" s="2">
+        <v>7422890.291</v>
       </c>
       <c r="CB26" s="2">
-        <v>179.41290467160832</v>
+        <v>177.74460779220777</v>
       </c>
       <c r="CC26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD26" s="2">
-        <v>343734.39999999997</v>
+        <v>402482.5</v>
       </c>
       <c r="CE26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF26" s="2">
-        <v>8.350343272744777</v>
+        <v>8.326410350006258</v>
       </c>
       <c r="CG26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH26" s="2">
-        <v>237.67395752454897</v>
+        <v>236.7409894237422</v>
       </c>
       <c r="CI26" s="2" t="s">
         <v>223</v>
@@ -18105,61 +18105,61 @@
         <v>223</v>
       </c>
       <c r="CV26" s="2">
-        <v>3703.822989323843</v>
+        <v>3662.2455504587156</v>
       </c>
       <c r="CW26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX26" s="2">
-        <v>443.55338078291817</v>
+        <v>439.8348623853211</v>
       </c>
       <c r="CY26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ26" s="2">
-        <v>28.462776889700844</v>
+        <v>28.43253929030345</v>
       </c>
       <c r="DA26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB26" s="2">
-        <v>18364</v>
-      </c>
-      <c r="DC26" s="2" t="s">
-        <v>223</v>
+        <v>18291</v>
+      </c>
+      <c r="DC26" s="2">
+        <v>4516</v>
       </c>
       <c r="DD26" s="2">
-        <v>4495</v>
-      </c>
-      <c r="DE26" s="2" t="s">
-        <v>223</v>
+        <v>4483</v>
+      </c>
+      <c r="DE26" s="2">
+        <v>2654</v>
       </c>
       <c r="DF26" s="2">
-        <v>3214</v>
-      </c>
-      <c r="DG26" s="2" t="s">
-        <v>223</v>
+        <v>3211</v>
+      </c>
+      <c r="DG26" s="2">
+        <v>2112</v>
       </c>
       <c r="DH26" s="2">
         <v>2221</v>
       </c>
-      <c r="DI26" s="2" t="s">
-        <v>223</v>
+      <c r="DI26" s="2">
+        <v>1675</v>
       </c>
       <c r="DJ26" s="2">
         <v>1329</v>
       </c>
-      <c r="DK26" s="2" t="s">
-        <v>223</v>
+      <c r="DK26" s="2">
+        <v>1194</v>
       </c>
       <c r="DL26" s="2">
-        <v>1391</v>
-      </c>
-      <c r="DM26" s="2" t="s">
-        <v>223</v>
+        <v>1390</v>
+      </c>
+      <c r="DM26" s="2">
+        <v>1171</v>
       </c>
       <c r="DN26" s="2">
-        <v>4942</v>
+        <v>4941</v>
       </c>
       <c r="DO26" s="2" t="s">
         <v>223</v>
@@ -18201,40 +18201,40 @@
         <v>223</v>
       </c>
       <c r="EB26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EC26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED26" s="2">
-        <v>5</v>
-      </c>
-      <c r="EE26" s="2" t="s">
-        <v>223</v>
+        <v>7</v>
+      </c>
+      <c r="EE26" s="2">
+        <v>1363</v>
       </c>
       <c r="EF26" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="EG26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EH26" s="2">
-        <v>31.93052772211089</v>
+        <v>31.99732798931196</v>
       </c>
       <c r="EI26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EJ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EL26" s="2">
-        <v>12</v>
-      </c>
-      <c r="EM26" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
+      </c>
+      <c r="EM26" s="2">
+        <v>953</v>
       </c>
       <c r="EN26" s="2">
         <v>0</v>
@@ -18243,19 +18243,19 @@
         <v>223</v>
       </c>
       <c r="EP26" s="2">
-        <v>31576</v>
-      </c>
-      <c r="EQ26" s="2" t="s">
-        <v>223</v>
+        <v>31579</v>
+      </c>
+      <c r="EQ26" s="2">
+        <v>31860</v>
       </c>
       <c r="ER26" s="2">
-        <v>4.4052444894856855</v>
+        <v>4.4016593305677825</v>
       </c>
       <c r="ES26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET26" s="2">
-        <v>578</v>
+        <v>671</v>
       </c>
       <c r="EU26" s="2" t="s">
         <v>223</v>
@@ -18267,13 +18267,13 @@
         <v>223</v>
       </c>
       <c r="EX26" s="2">
-        <v>249277</v>
+        <v>287652</v>
       </c>
       <c r="EY26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ26" s="2">
-        <v>211485</v>
+        <v>243900</v>
       </c>
       <c r="FA26" s="2" t="s">
         <v>223</v>
@@ -18285,31 +18285,31 @@
         <v>223</v>
       </c>
       <c r="FD26" s="2">
-        <v>211485</v>
+        <v>243900</v>
       </c>
       <c r="FE26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF26" s="2">
-        <v>15939</v>
+        <v>18562</v>
       </c>
       <c r="FG26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH26" s="2">
-        <v>21853</v>
+        <v>25763</v>
       </c>
       <c r="FI26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ26" s="2">
-        <v>37792</v>
+        <v>44325</v>
       </c>
       <c r="FK26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL26" s="2">
-        <v>21.485692122047922</v>
+        <v>21.34708719851577</v>
       </c>
       <c r="FM26" s="2" t="s">
         <v>223</v>
@@ -18321,7 +18321,7 @@
         <v>223</v>
       </c>
       <c r="FP26" s="2">
-        <v>7681</v>
+        <v>8862</v>
       </c>
       <c r="FQ26" s="2" t="s">
         <v>223</v>
@@ -18333,55 +18333,55 @@
         <v>223</v>
       </c>
       <c r="FT26" s="2">
-        <v>7681</v>
+        <v>8862</v>
       </c>
       <c r="FU26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV26" s="2">
-        <v>11602</v>
+        <v>13492</v>
       </c>
       <c r="FW26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX26" s="2">
-        <v>9596</v>
+        <v>11105</v>
       </c>
       <c r="FY26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ26" s="2">
-        <v>1915</v>
+        <v>2243</v>
       </c>
       <c r="GA26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB26" s="2">
-        <v>2006</v>
+        <v>2387</v>
       </c>
       <c r="GC26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD26" s="2">
-        <v>3921</v>
+        <v>4630</v>
       </c>
       <c r="GE26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF26" s="2">
-        <v>20.644128113879002</v>
+        <v>20.603975535168196</v>
       </c>
       <c r="GG26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH26" s="2">
-        <v>15.583629893238435</v>
+        <v>15.469418960244647</v>
       </c>
       <c r="GI26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GJ26" s="2">
-        <v>13388</v>
+        <v>13389</v>
       </c>
       <c r="GK26" s="2" t="s">
         <v>223</v>
@@ -18393,13 +18393,13 @@
         <v>223</v>
       </c>
       <c r="GN26" s="2">
-        <v>15001</v>
+        <v>15003</v>
       </c>
       <c r="GO26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP26" s="2">
-        <v>18555</v>
+        <v>18557</v>
       </c>
       <c r="GQ26" s="2" t="s">
         <v>223</v>
@@ -18411,25 +18411,25 @@
         <v>223</v>
       </c>
       <c r="GT26" s="2">
-        <v>8918</v>
+        <v>8919</v>
       </c>
       <c r="GU26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV26" s="2">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="GW26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX26" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="GY26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="HA26" s="2" t="s">
         <v>223</v>
@@ -18447,25 +18447,25 @@
         <v>223</v>
       </c>
       <c r="HF26" s="2">
-        <v>0.9826989619377162</v>
+        <v>0.9761549925484352</v>
       </c>
       <c r="HG26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH26" s="2">
-        <v>-1387</v>
+        <v>-1384</v>
       </c>
       <c r="HI26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ26" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="HK26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="HM26" s="2" t="s">
         <v>223</v>
@@ -18488,10 +18488,10 @@
         <v>202517</v>
       </c>
       <c r="F27" s="2">
-        <v>17618</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>223</v>
+        <v>17624</v>
+      </c>
+      <c r="G27" s="2">
+        <v>18513</v>
       </c>
       <c r="H27" s="2">
         <v>240.21</v>
@@ -18500,25 +18500,25 @@
         <v>223</v>
       </c>
       <c r="J27" s="2">
-        <v>6920825.420000001</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>223</v>
+        <v>7025615.330000001</v>
+      </c>
+      <c r="K27" s="2">
+        <v>35623323.01</v>
       </c>
       <c r="L27" s="2">
-        <v>-916</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>223</v>
+        <v>-910</v>
+      </c>
+      <c r="M27" s="2">
+        <v>390</v>
       </c>
       <c r="N27" s="2">
-        <v>2700</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>223</v>
+        <v>2748</v>
+      </c>
+      <c r="O27" s="2">
+        <v>14475</v>
       </c>
       <c r="P27" s="2">
-        <v>12.085828343313374</v>
+        <v>12.077824893988526</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>223</v>
@@ -18530,13 +18530,13 @@
         <v>223</v>
       </c>
       <c r="T27" s="2">
-        <v>800789</v>
+        <v>812133</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V27" s="2">
-        <v>2700</v>
+        <v>2748</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>223</v>
@@ -18548,7 +18548,7 @@
         <v>223</v>
       </c>
       <c r="Z27" s="2">
-        <v>44888</v>
+        <v>45639</v>
       </c>
       <c r="AA27" s="2" t="s">
         <v>223</v>
@@ -18572,22 +18572,22 @@
         <v>223</v>
       </c>
       <c r="AH27" s="2">
-        <v>15.325235554546488</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>223</v>
+        <v>15.592374035406264</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>78.19</v>
       </c>
       <c r="AJ27" s="2">
-        <v>2907</v>
+        <v>2959</v>
       </c>
       <c r="AK27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL27" s="2">
-        <v>2500</v>
-      </c>
-      <c r="AM27" s="2" t="s">
-        <v>223</v>
+        <v>2542</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>12971</v>
       </c>
       <c r="AN27" s="2">
         <v>1</v>
@@ -18596,31 +18596,31 @@
         <v>223</v>
       </c>
       <c r="AP27" s="2">
-        <v>1647</v>
+        <v>1673</v>
       </c>
       <c r="AQ27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR27" s="2">
-        <v>2388</v>
+        <v>2433</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT27" s="2">
-        <v>14.190032920876378</v>
-      </c>
-      <c r="AU27" s="2" t="s">
-        <v>223</v>
+        <v>14.423513390830687</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>70.06</v>
       </c>
       <c r="AV27" s="2">
-        <v>2563.27</v>
-      </c>
-      <c r="AW27" s="2" t="s">
-        <v>223</v>
+        <v>2556.63</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>2461.02</v>
       </c>
       <c r="AX27" s="2">
-        <v>1335</v>
+        <v>1358</v>
       </c>
       <c r="AY27" s="2" t="s">
         <v>223</v>
@@ -18674,13 +18674,13 @@
         <v>223</v>
       </c>
       <c r="BP27" s="2">
-        <v>6920585.210000001</v>
+        <v>7025375.120000001</v>
       </c>
       <c r="BQ27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR27" s="2">
-        <v>2786901.85</v>
+        <v>2816459.5500000007</v>
       </c>
       <c r="BS27" s="2" t="s">
         <v>223</v>
@@ -18692,43 +18692,43 @@
         <v>223</v>
       </c>
       <c r="BV27" s="2">
-        <v>2786661.64</v>
-      </c>
-      <c r="BW27" s="2" t="s">
-        <v>223</v>
+        <v>2816219.340000001</v>
+      </c>
+      <c r="BW27" s="2">
+        <v>10101868.61</v>
       </c>
       <c r="BX27" s="2">
-        <v>2543001.08</v>
-      </c>
-      <c r="BY27" s="2" t="s">
-        <v>223</v>
+        <v>2584683.39</v>
+      </c>
+      <c r="BY27" s="2">
+        <v>16605033.18</v>
       </c>
       <c r="BZ27" s="2">
-        <v>1405427.4900000002</v>
-      </c>
-      <c r="CA27" s="2" t="s">
-        <v>223</v>
+        <v>1435102.3900000001</v>
+      </c>
+      <c r="CA27" s="2">
+        <v>8916421.224</v>
       </c>
       <c r="CB27" s="2">
-        <v>101.42632695830586</v>
+        <v>101.23365028818445</v>
       </c>
       <c r="CC27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD27" s="2">
-        <v>3948428.57</v>
+        <v>4019785.7799999993</v>
       </c>
       <c r="CE27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF27" s="2">
-        <v>8.64250810138501</v>
+        <v>8.650818683639258</v>
       </c>
       <c r="CG27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH27" s="2">
-        <v>154.17985697736592</v>
+        <v>153.93885339293152</v>
       </c>
       <c r="CI27" s="2" t="s">
         <v>223</v>
@@ -18770,61 +18770,61 @@
         <v>223</v>
       </c>
       <c r="CV27" s="2">
-        <v>2563.268674074074</v>
+        <v>2556.6285771470166</v>
       </c>
       <c r="CW27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX27" s="2">
-        <v>296.5777777777778</v>
+        <v>295.5254730713246</v>
       </c>
       <c r="CY27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ27" s="2">
-        <v>17.83971217251827</v>
+        <v>17.794715046341945</v>
       </c>
       <c r="DA27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB27" s="2">
-        <v>11728</v>
-      </c>
-      <c r="DC27" s="2" t="s">
-        <v>223</v>
+        <v>11690</v>
+      </c>
+      <c r="DC27" s="2">
+        <v>2430</v>
       </c>
       <c r="DD27" s="2">
-        <v>1999</v>
-      </c>
-      <c r="DE27" s="2" t="s">
-        <v>223</v>
+        <v>1997</v>
+      </c>
+      <c r="DE27" s="2">
+        <v>1203</v>
       </c>
       <c r="DF27" s="2">
-        <v>1191</v>
-      </c>
-      <c r="DG27" s="2" t="s">
-        <v>223</v>
+        <v>1189</v>
+      </c>
+      <c r="DG27" s="2">
+        <v>954</v>
       </c>
       <c r="DH27" s="2">
-        <v>1080</v>
-      </c>
-      <c r="DI27" s="2" t="s">
-        <v>223</v>
+        <v>1079</v>
+      </c>
+      <c r="DI27" s="2">
+        <v>884</v>
       </c>
       <c r="DJ27" s="2">
         <v>700</v>
       </c>
-      <c r="DK27" s="2" t="s">
-        <v>223</v>
+      <c r="DK27" s="2">
+        <v>623</v>
       </c>
       <c r="DL27" s="2">
         <v>639</v>
       </c>
-      <c r="DM27" s="2" t="s">
-        <v>223</v>
+      <c r="DM27" s="2">
+        <v>594</v>
       </c>
       <c r="DN27" s="2">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="DO27" s="2" t="s">
         <v>223</v>
@@ -18866,40 +18866,40 @@
         <v>223</v>
       </c>
       <c r="EB27" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="EC27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED27" s="2">
-        <v>139</v>
-      </c>
-      <c r="EE27" s="2" t="s">
-        <v>223</v>
+        <v>144</v>
+      </c>
+      <c r="EE27" s="2">
+        <v>1128</v>
       </c>
       <c r="EF27" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="EG27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EH27" s="2">
-        <v>44.71544715447154</v>
+        <v>44.83159117305458</v>
       </c>
       <c r="EI27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EJ27" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EK27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EL27" s="2">
-        <v>61</v>
-      </c>
-      <c r="EM27" s="2" t="s">
-        <v>223</v>
+        <v>62</v>
+      </c>
+      <c r="EM27" s="2">
+        <v>376</v>
       </c>
       <c r="EN27" s="2">
         <v>152</v>
@@ -18908,19 +18908,19 @@
         <v>223</v>
       </c>
       <c r="EP27" s="2">
-        <v>20040</v>
-      </c>
-      <c r="EQ27" s="2" t="s">
-        <v>223</v>
+        <v>20045</v>
+      </c>
+      <c r="EQ27" s="2">
+        <v>20614</v>
       </c>
       <c r="ER27" s="2">
-        <v>3.188622754491018</v>
+        <v>3.1878273883761534</v>
       </c>
       <c r="ES27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET27" s="2">
-        <v>2908</v>
+        <v>2960</v>
       </c>
       <c r="EU27" s="2" t="s">
         <v>223</v>
@@ -18932,13 +18932,13 @@
         <v>223</v>
       </c>
       <c r="EX27" s="2">
-        <v>800760</v>
+        <v>812104</v>
       </c>
       <c r="EY27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ27" s="2">
-        <v>330692</v>
+        <v>333956</v>
       </c>
       <c r="FA27" s="2" t="s">
         <v>223</v>
@@ -18950,31 +18950,31 @@
         <v>223</v>
       </c>
       <c r="FD27" s="2">
-        <v>330663</v>
+        <v>333927</v>
       </c>
       <c r="FE27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF27" s="2">
-        <v>324381</v>
+        <v>329288</v>
       </c>
       <c r="FG27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH27" s="2">
-        <v>145716</v>
+        <v>148889</v>
       </c>
       <c r="FI27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ27" s="2">
-        <v>470097</v>
+        <v>478177</v>
       </c>
       <c r="FK27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL27" s="2">
-        <v>11.735751447204514</v>
+        <v>11.702204610951009</v>
       </c>
       <c r="FM27" s="2" t="s">
         <v>223</v>
@@ -18986,7 +18986,7 @@
         <v>223</v>
       </c>
       <c r="FP27" s="2">
-        <v>13941</v>
+        <v>14102</v>
       </c>
       <c r="FQ27" s="2" t="s">
         <v>223</v>
@@ -18998,49 +18998,49 @@
         <v>223</v>
       </c>
       <c r="FT27" s="2">
-        <v>13938</v>
+        <v>14099</v>
       </c>
       <c r="FU27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV27" s="2">
-        <v>68235</v>
+        <v>69400</v>
       </c>
       <c r="FW27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX27" s="2">
-        <v>52262</v>
+        <v>53132</v>
       </c>
       <c r="FY27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ27" s="2">
-        <v>38324</v>
+        <v>39033</v>
       </c>
       <c r="GA27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB27" s="2">
-        <v>15970</v>
+        <v>16265</v>
       </c>
       <c r="GC27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD27" s="2">
-        <v>54294</v>
+        <v>55298</v>
       </c>
       <c r="GE27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF27" s="2">
-        <v>25.272222222222222</v>
+        <v>25.254730713245998</v>
       </c>
       <c r="GG27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH27" s="2">
-        <v>16.625185185185185</v>
+        <v>16.608078602620086</v>
       </c>
       <c r="GI27" s="2" t="s">
         <v>223</v>
@@ -19058,19 +19058,19 @@
         <v>223</v>
       </c>
       <c r="GN27" s="2">
-        <v>9631</v>
+        <v>9636</v>
       </c>
       <c r="GO27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP27" s="2">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="GQ27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GR27" s="2">
-        <v>12892</v>
+        <v>12895</v>
       </c>
       <c r="GS27" s="2" t="s">
         <v>223</v>
@@ -19082,19 +19082,19 @@
         <v>223</v>
       </c>
       <c r="GV27" s="2">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="GW27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX27" s="2">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="GY27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ27" s="2">
-        <v>1212</v>
+        <v>1238</v>
       </c>
       <c r="HA27" s="2" t="s">
         <v>223</v>
@@ -19112,25 +19112,25 @@
         <v>223</v>
       </c>
       <c r="HF27" s="2">
-        <v>0.8775790921595599</v>
+        <v>0.879054054054054</v>
       </c>
       <c r="HG27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH27" s="2">
-        <v>-651</v>
+        <v>-646</v>
       </c>
       <c r="HI27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ27" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="HK27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL27" s="2">
-        <v>1053</v>
+        <v>1075</v>
       </c>
       <c r="HM27" s="2" t="s">
         <v>223</v>
@@ -19153,10 +19153,10 @@
         <v>202517</v>
       </c>
       <c r="F28" s="2">
-        <v>26619</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>223</v>
+        <v>26627</v>
+      </c>
+      <c r="G28" s="2">
+        <v>28068</v>
       </c>
       <c r="H28" s="2">
         <v>35684.17</v>
@@ -19165,25 +19165,25 @@
         <v>223</v>
       </c>
       <c r="J28" s="2">
-        <v>15339763.15</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>223</v>
+        <v>15505664.2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>54034389.14</v>
       </c>
       <c r="L28" s="2">
-        <v>-1478</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>223</v>
+        <v>-1470</v>
+      </c>
+      <c r="M28" s="2">
+        <v>392</v>
       </c>
       <c r="N28" s="2">
-        <v>5325</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>223</v>
+        <v>5392</v>
+      </c>
+      <c r="O28" s="2">
+        <v>20760</v>
       </c>
       <c r="P28" s="2">
-        <v>13.25360099067979</v>
+        <v>13.241666938190349</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>223</v>
@@ -19195,13 +19195,13 @@
         <v>223</v>
       </c>
       <c r="T28" s="2">
-        <v>1800607</v>
+        <v>1819313</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V28" s="2">
-        <v>5317</v>
+        <v>5384</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>223</v>
@@ -19213,7 +19213,7 @@
         <v>223</v>
       </c>
       <c r="Z28" s="2">
-        <v>77835</v>
+        <v>78925</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>223</v>
@@ -19237,22 +19237,22 @@
         <v>223</v>
       </c>
       <c r="AH28" s="2">
-        <v>20.00450805815395</v>
-      </c>
-      <c r="AI28" s="2" t="s">
-        <v>223</v>
+        <v>20.250122056559132</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>73.96</v>
       </c>
       <c r="AJ28" s="2">
-        <v>5981</v>
+        <v>6057</v>
       </c>
       <c r="AK28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL28" s="2">
-        <v>4901</v>
-      </c>
-      <c r="AM28" s="2" t="s">
-        <v>223</v>
+        <v>4960</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>18468</v>
       </c>
       <c r="AN28" s="2">
         <v>37</v>
@@ -19261,31 +19261,31 @@
         <v>223</v>
       </c>
       <c r="AP28" s="2">
-        <v>4408</v>
+        <v>4452</v>
       </c>
       <c r="AQ28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR28" s="2">
-        <v>3925</v>
+        <v>3986</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT28" s="2">
-        <v>18.411660843758217</v>
-      </c>
-      <c r="AU28" s="2" t="s">
-        <v>223</v>
+        <v>18.627708716716114</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>65.8</v>
       </c>
       <c r="AV28" s="2">
-        <v>2880.71</v>
-      </c>
-      <c r="AW28" s="2" t="s">
-        <v>223</v>
+        <v>2875.68</v>
+      </c>
+      <c r="AW28" s="2">
+        <v>2602.81</v>
       </c>
       <c r="AX28" s="2">
-        <v>3008</v>
+        <v>3046</v>
       </c>
       <c r="AY28" s="2" t="s">
         <v>223</v>
@@ -19303,7 +19303,7 @@
         <v>223</v>
       </c>
       <c r="BD28" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BE28" s="2" t="s">
         <v>223</v>
@@ -19339,13 +19339,13 @@
         <v>223</v>
       </c>
       <c r="BP28" s="2">
-        <v>15304078.979999999</v>
+        <v>15469980.030000001</v>
       </c>
       <c r="BQ28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR28" s="2">
-        <v>10394469.550000003</v>
+        <v>10477192.31</v>
       </c>
       <c r="BS28" s="2" t="s">
         <v>223</v>
@@ -19357,43 +19357,43 @@
         <v>223</v>
       </c>
       <c r="BV28" s="2">
-        <v>10358785.38</v>
-      </c>
-      <c r="BW28" s="2" t="s">
-        <v>223</v>
+        <v>10441508.14</v>
+      </c>
+      <c r="BW28" s="2">
+        <v>27482996.16</v>
       </c>
       <c r="BX28" s="2">
-        <v>2782739.96</v>
-      </c>
-      <c r="BY28" s="2" t="s">
-        <v>223</v>
+        <v>2833269.02</v>
+      </c>
+      <c r="BY28" s="2">
+        <v>15850360.13</v>
       </c>
       <c r="BZ28" s="2">
-        <v>1816143.6400000001</v>
-      </c>
-      <c r="CA28" s="2" t="s">
-        <v>223</v>
+        <v>1843907.87</v>
+      </c>
+      <c r="CA28" s="2">
+        <v>10701032.86</v>
       </c>
       <c r="CB28" s="2">
-        <v>130.27399702760084</v>
+        <v>130.0069104873059</v>
       </c>
       <c r="CC28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD28" s="2">
-        <v>4598883.6</v>
+        <v>4677176.89</v>
       </c>
       <c r="CE28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF28" s="2">
-        <v>8.519217769341116</v>
+        <v>8.522812841990355</v>
       </c>
       <c r="CG28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH28" s="2">
-        <v>197.08053125200746</v>
+        <v>196.4607437440608</v>
       </c>
       <c r="CI28" s="2" t="s">
         <v>223</v>
@@ -19435,61 +19435,61 @@
         <v>223</v>
       </c>
       <c r="CV28" s="2">
-        <v>2880.706694835681</v>
+        <v>2875.67956231454</v>
       </c>
       <c r="CW28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX28" s="2">
-        <v>337.32225352112675</v>
+        <v>336.5999629080119</v>
       </c>
       <c r="CY28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ28" s="2">
-        <v>23.133641677908397</v>
+        <v>23.051162496040543</v>
       </c>
       <c r="DA28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB28" s="2">
-        <v>15870</v>
-      </c>
-      <c r="DC28" s="2" t="s">
-        <v>223</v>
+        <v>15817</v>
+      </c>
+      <c r="DC28" s="2">
+        <v>4033</v>
       </c>
       <c r="DD28" s="2">
-        <v>3254</v>
-      </c>
-      <c r="DE28" s="2" t="s">
-        <v>223</v>
+        <v>3250</v>
+      </c>
+      <c r="DE28" s="2">
+        <v>2111</v>
       </c>
       <c r="DF28" s="2">
-        <v>2170</v>
-      </c>
-      <c r="DG28" s="2" t="s">
-        <v>223</v>
+        <v>2168</v>
+      </c>
+      <c r="DG28" s="2">
+        <v>1583</v>
       </c>
       <c r="DH28" s="2">
-        <v>1797</v>
-      </c>
-      <c r="DI28" s="2" t="s">
-        <v>223</v>
+        <v>1796</v>
+      </c>
+      <c r="DI28" s="2">
+        <v>1490</v>
       </c>
       <c r="DJ28" s="2">
-        <v>1177</v>
-      </c>
-      <c r="DK28" s="2" t="s">
-        <v>223</v>
+        <v>1175</v>
+      </c>
+      <c r="DK28" s="2">
+        <v>1062</v>
       </c>
       <c r="DL28" s="2">
         <v>1093</v>
       </c>
-      <c r="DM28" s="2" t="s">
-        <v>223</v>
+      <c r="DM28" s="2">
+        <v>1016</v>
       </c>
       <c r="DN28" s="2">
-        <v>4067</v>
+        <v>4064</v>
       </c>
       <c r="DO28" s="2" t="s">
         <v>223</v>
@@ -19531,16 +19531,16 @@
         <v>223</v>
       </c>
       <c r="EB28" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="EC28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED28" s="2">
-        <v>236</v>
-      </c>
-      <c r="EE28" s="2" t="s">
-        <v>223</v>
+        <v>241</v>
+      </c>
+      <c r="EE28" s="2">
+        <v>1610</v>
       </c>
       <c r="EF28" s="2">
         <v>533</v>
@@ -19561,10 +19561,10 @@
         <v>223</v>
       </c>
       <c r="EL28" s="2">
-        <v>187</v>
-      </c>
-      <c r="EM28" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
+      </c>
+      <c r="EM28" s="2">
+        <v>682</v>
       </c>
       <c r="EN28" s="2">
         <v>47</v>
@@ -19573,19 +19573,19 @@
         <v>223</v>
       </c>
       <c r="EP28" s="2">
-        <v>30686</v>
-      </c>
-      <c r="EQ28" s="2" t="s">
-        <v>223</v>
+        <v>30691</v>
+      </c>
+      <c r="EQ28" s="2">
+        <v>31636</v>
       </c>
       <c r="ER28" s="2">
-        <v>3.5618848986508507</v>
+        <v>3.561304616988694</v>
       </c>
       <c r="ES28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET28" s="2">
-        <v>6018</v>
+        <v>6094</v>
       </c>
       <c r="EU28" s="2" t="s">
         <v>223</v>
@@ -19597,13 +19597,13 @@
         <v>223</v>
       </c>
       <c r="EX28" s="2">
-        <v>1796241</v>
+        <v>1814947</v>
       </c>
       <c r="EY28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ28" s="2">
-        <v>1273889</v>
+        <v>1283688</v>
       </c>
       <c r="FA28" s="2" t="s">
         <v>223</v>
@@ -19615,31 +19615,31 @@
         <v>223</v>
       </c>
       <c r="FD28" s="2">
-        <v>1269523</v>
+        <v>1279322</v>
       </c>
       <c r="FE28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF28" s="2">
-        <v>336048</v>
+        <v>342026</v>
       </c>
       <c r="FG28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH28" s="2">
-        <v>190670</v>
+        <v>193599</v>
       </c>
       <c r="FI28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ28" s="2">
-        <v>526718</v>
+        <v>535625</v>
       </c>
       <c r="FK28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL28" s="2">
-        <v>15.291779193205945</v>
+        <v>15.253991011838885</v>
       </c>
       <c r="FM28" s="2" t="s">
         <v>223</v>
@@ -19651,7 +19651,7 @@
         <v>223</v>
       </c>
       <c r="FP28" s="2">
-        <v>53508</v>
+        <v>53898</v>
       </c>
       <c r="FQ28" s="2" t="s">
         <v>223</v>
@@ -19663,49 +19663,49 @@
         <v>223</v>
       </c>
       <c r="FT28" s="2">
-        <v>53316</v>
+        <v>53706</v>
       </c>
       <c r="FU28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV28" s="2">
-        <v>117750</v>
+        <v>119270</v>
       </c>
       <c r="FW28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX28" s="2">
-        <v>97476</v>
+        <v>98651</v>
       </c>
       <c r="FY28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ28" s="2">
-        <v>44160</v>
+        <v>44945</v>
       </c>
       <c r="GA28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB28" s="2">
-        <v>20082</v>
+        <v>20427</v>
       </c>
       <c r="GC28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD28" s="2">
-        <v>64242</v>
+        <v>65372</v>
       </c>
       <c r="GE28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF28" s="2">
-        <v>22.112676056338028</v>
+        <v>22.119436201780417</v>
       </c>
       <c r="GG28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH28" s="2">
-        <v>14.616901408450705</v>
+        <v>14.63742581602374</v>
       </c>
       <c r="GI28" s="2" t="s">
         <v>223</v>
@@ -19723,43 +19723,43 @@
         <v>223</v>
       </c>
       <c r="GN28" s="2">
-        <v>16146</v>
+        <v>16151</v>
       </c>
       <c r="GO28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP28" s="2">
-        <v>8669</v>
+        <v>8673</v>
       </c>
       <c r="GQ28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GR28" s="2">
-        <v>11706</v>
+        <v>11709</v>
       </c>
       <c r="GS28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT28" s="2">
-        <v>10311</v>
+        <v>10309</v>
       </c>
       <c r="GU28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV28" s="2">
-        <v>2762</v>
+        <v>2778</v>
       </c>
       <c r="GW28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX28" s="2">
-        <v>1482</v>
+        <v>1508</v>
       </c>
       <c r="GY28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ28" s="2">
-        <v>1070</v>
+        <v>1095</v>
       </c>
       <c r="HA28" s="2" t="s">
         <v>223</v>
@@ -19777,25 +19777,25 @@
         <v>223</v>
       </c>
       <c r="HF28" s="2">
-        <v>0.8368228647391159</v>
+        <v>0.8370528388578931</v>
       </c>
       <c r="HG28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH28" s="2">
-        <v>-904</v>
+        <v>-899</v>
       </c>
       <c r="HI28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ28" s="2">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="HK28" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL28" s="2">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="HM28" s="2" t="s">
         <v>223</v>
@@ -19818,10 +19818,10 @@
         <v>202517</v>
       </c>
       <c r="F29" s="2">
-        <v>20811</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>223</v>
+        <v>20816</v>
+      </c>
+      <c r="G29" s="2">
+        <v>22428</v>
       </c>
       <c r="H29" s="2">
         <v>370.33</v>
@@ -19830,25 +19830,25 @@
         <v>223</v>
       </c>
       <c r="J29" s="2">
-        <v>4008945.33</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>223</v>
+        <v>4135182.92</v>
+      </c>
+      <c r="K29" s="2">
+        <v>45210481.24</v>
       </c>
       <c r="L29" s="2">
-        <v>-1371</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>223</v>
+        <v>-1368</v>
+      </c>
+      <c r="M29" s="2">
+        <v>404</v>
       </c>
       <c r="N29" s="2">
-        <v>1156</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>223</v>
+        <v>1189</v>
+      </c>
+      <c r="O29" s="2">
+        <v>16049</v>
       </c>
       <c r="P29" s="2">
-        <v>14.245096423273445</v>
+        <v>14.2315615986815</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>223</v>
@@ -19860,13 +19860,13 @@
         <v>223</v>
       </c>
       <c r="T29" s="2">
-        <v>490834</v>
+        <v>506059</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V29" s="2">
-        <v>1155</v>
+        <v>1188</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>223</v>
@@ -19878,7 +19878,7 @@
         <v>223</v>
       </c>
       <c r="Z29" s="2">
-        <v>14581</v>
+        <v>15128</v>
       </c>
       <c r="AA29" s="2" t="s">
         <v>223</v>
@@ -19902,22 +19902,22 @@
         <v>223</v>
       </c>
       <c r="AH29" s="2">
-        <v>5.5547546970352215</v>
-      </c>
-      <c r="AI29" s="2" t="s">
-        <v>223</v>
+        <v>5.711952344350499</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>71.56</v>
       </c>
       <c r="AJ29" s="2">
-        <v>1199</v>
+        <v>1235</v>
       </c>
       <c r="AK29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL29" s="2">
-        <v>1098</v>
-      </c>
-      <c r="AM29" s="2" t="s">
-        <v>223</v>
+        <v>1128</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>14233</v>
       </c>
       <c r="AN29" s="2">
         <v>1</v>
@@ -19926,31 +19926,31 @@
         <v>223</v>
       </c>
       <c r="AP29" s="2">
-        <v>1115</v>
+        <v>1147</v>
       </c>
       <c r="AQ29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR29" s="2">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT29" s="2">
-        <v>5.2760559319590605</v>
-      </c>
-      <c r="AU29" s="2" t="s">
-        <v>223</v>
+        <v>5.4189085318985395</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>63.46</v>
       </c>
       <c r="AV29" s="2">
-        <v>3467.95</v>
-      </c>
-      <c r="AW29" s="2" t="s">
-        <v>223</v>
+        <v>3477.87</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>2817.03</v>
       </c>
       <c r="AX29" s="2">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="AY29" s="2" t="s">
         <v>223</v>
@@ -20004,13 +20004,13 @@
         <v>223</v>
       </c>
       <c r="BP29" s="2">
-        <v>4008575</v>
+        <v>4134812.59</v>
       </c>
       <c r="BQ29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR29" s="2">
-        <v>3343307.0300000003</v>
+        <v>3439259.2399999993</v>
       </c>
       <c r="BS29" s="2" t="s">
         <v>223</v>
@@ -20022,43 +20022,43 @@
         <v>223</v>
       </c>
       <c r="BV29" s="2">
-        <v>3342936.7</v>
-      </c>
-      <c r="BW29" s="2" t="s">
-        <v>223</v>
+        <v>3438888.909999999</v>
+      </c>
+      <c r="BW29" s="2">
+        <v>30041137.98</v>
       </c>
       <c r="BX29" s="2">
-        <v>299376.75</v>
-      </c>
-      <c r="BY29" s="2" t="s">
-        <v>223</v>
+        <v>312408.37000000005</v>
+      </c>
+      <c r="BY29" s="2">
+        <v>8627983.323</v>
       </c>
       <c r="BZ29" s="2">
-        <v>319526.55</v>
-      </c>
-      <c r="CA29" s="2" t="s">
-        <v>223</v>
+        <v>335110.31</v>
+      </c>
+      <c r="CA29" s="2">
+        <v>6541359.933</v>
       </c>
       <c r="CB29" s="2">
-        <v>190.68423373287672</v>
+        <v>189.90507095292767</v>
       </c>
       <c r="CC29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD29" s="2">
-        <v>618903.3</v>
+        <v>647518.6799999999</v>
       </c>
       <c r="CE29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF29" s="2">
-        <v>8.167619459939614</v>
+        <v>8.171345475527557</v>
       </c>
       <c r="CG29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH29" s="2">
-        <v>274.94309923873533</v>
+        <v>273.3463061872025</v>
       </c>
       <c r="CI29" s="2" t="s">
         <v>223</v>
@@ -20100,61 +20100,61 @@
         <v>223</v>
       </c>
       <c r="CV29" s="2">
-        <v>3467.9457871972318</v>
+        <v>3477.866206896552</v>
       </c>
       <c r="CW29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX29" s="2">
-        <v>424.55795847750863</v>
+        <v>425.5794785534062</v>
       </c>
       <c r="CY29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ29" s="2">
-        <v>33.66257458336191</v>
+        <v>33.45181121099947</v>
       </c>
       <c r="DA29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB29" s="2">
-        <v>14309</v>
-      </c>
-      <c r="DC29" s="2" t="s">
-        <v>223</v>
+        <v>14291</v>
+      </c>
+      <c r="DC29" s="2">
+        <v>3402</v>
       </c>
       <c r="DD29" s="2">
-        <v>3278</v>
-      </c>
-      <c r="DE29" s="2" t="s">
-        <v>223</v>
+        <v>3269</v>
+      </c>
+      <c r="DE29" s="2">
+        <v>1987</v>
       </c>
       <c r="DF29" s="2">
-        <v>2068</v>
-      </c>
-      <c r="DG29" s="2" t="s">
-        <v>223</v>
+        <v>2067</v>
+      </c>
+      <c r="DG29" s="2">
+        <v>1336</v>
       </c>
       <c r="DH29" s="2">
         <v>1404</v>
       </c>
-      <c r="DI29" s="2" t="s">
-        <v>223</v>
+      <c r="DI29" s="2">
+        <v>1063</v>
       </c>
       <c r="DJ29" s="2">
-        <v>990</v>
-      </c>
-      <c r="DK29" s="2" t="s">
-        <v>223</v>
+        <v>989</v>
+      </c>
+      <c r="DK29" s="2">
+        <v>886</v>
       </c>
       <c r="DL29" s="2">
-        <v>1063</v>
-      </c>
-      <c r="DM29" s="2" t="s">
-        <v>223</v>
+        <v>1061</v>
+      </c>
+      <c r="DM29" s="2">
+        <v>914</v>
       </c>
       <c r="DN29" s="2">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="DO29" s="2" t="s">
         <v>223</v>
@@ -20196,16 +20196,16 @@
         <v>223</v>
       </c>
       <c r="EB29" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="EC29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED29" s="2">
-        <v>17</v>
-      </c>
-      <c r="EE29" s="2" t="s">
-        <v>223</v>
+        <v>18</v>
+      </c>
+      <c r="EE29" s="2">
+        <v>1190</v>
       </c>
       <c r="EF29" s="2">
         <v>341</v>
@@ -20226,10 +20226,10 @@
         <v>223</v>
       </c>
       <c r="EL29" s="2">
-        <v>36</v>
-      </c>
-      <c r="EM29" s="2" t="s">
-        <v>223</v>
+        <v>38</v>
+      </c>
+      <c r="EM29" s="2">
+        <v>626</v>
       </c>
       <c r="EN29" s="2">
         <v>0</v>
@@ -20238,19 +20238,19 @@
         <v>223</v>
       </c>
       <c r="EP29" s="2">
-        <v>24268</v>
-      </c>
-      <c r="EQ29" s="2" t="s">
-        <v>223</v>
+        <v>24270</v>
+      </c>
+      <c r="EQ29" s="2">
+        <v>25291</v>
       </c>
       <c r="ER29" s="2">
-        <v>4.380253832207021</v>
+        <v>4.3716522455706635</v>
       </c>
       <c r="ES29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET29" s="2">
-        <v>1200</v>
+        <v>1236</v>
       </c>
       <c r="EU29" s="2" t="s">
         <v>223</v>
@@ -20262,13 +20262,13 @@
         <v>223</v>
       </c>
       <c r="EX29" s="2">
-        <v>490789</v>
+        <v>506014</v>
       </c>
       <c r="EY29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ29" s="2">
-        <v>419785</v>
+        <v>431832</v>
       </c>
       <c r="FA29" s="2" t="s">
         <v>223</v>
@@ -20280,31 +20280,31 @@
         <v>223</v>
       </c>
       <c r="FD29" s="2">
-        <v>419740</v>
+        <v>431787</v>
       </c>
       <c r="FE29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF29" s="2">
-        <v>37227</v>
+        <v>38749</v>
       </c>
       <c r="FG29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH29" s="2">
-        <v>33822</v>
+        <v>35478</v>
       </c>
       <c r="FI29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ29" s="2">
-        <v>71049</v>
+        <v>74227</v>
       </c>
       <c r="FK29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL29" s="2">
-        <v>23.34636605783866</v>
+        <v>23.24036739380023</v>
       </c>
       <c r="FM29" s="2" t="s">
         <v>223</v>
@@ -20316,7 +20316,7 @@
         <v>223</v>
       </c>
       <c r="FP29" s="2">
-        <v>14209</v>
+        <v>14626</v>
       </c>
       <c r="FQ29" s="2" t="s">
         <v>223</v>
@@ -20328,49 +20328,49 @@
         <v>223</v>
       </c>
       <c r="FT29" s="2">
-        <v>14205</v>
+        <v>14622</v>
       </c>
       <c r="FU29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV29" s="2">
-        <v>21024</v>
+        <v>21780</v>
       </c>
       <c r="FW29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX29" s="2">
-        <v>18314</v>
+        <v>18928</v>
       </c>
       <c r="FY29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ29" s="2">
-        <v>4109</v>
+        <v>4306</v>
       </c>
       <c r="GA29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB29" s="2">
-        <v>2706</v>
+        <v>2848</v>
       </c>
       <c r="GC29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD29" s="2">
-        <v>6815</v>
+        <v>7154</v>
       </c>
       <c r="GE29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF29" s="2">
-        <v>18.186851211072664</v>
+        <v>18.31370899915896</v>
       </c>
       <c r="GG29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH29" s="2">
-        <v>12.613321799307958</v>
+        <v>12.723296888141295</v>
       </c>
       <c r="GI29" s="2" t="s">
         <v>223</v>
@@ -20388,7 +20388,7 @@
         <v>223</v>
       </c>
       <c r="GN29" s="2">
-        <v>11495</v>
+        <v>11497</v>
       </c>
       <c r="GO29" s="2" t="s">
         <v>223</v>
@@ -20400,31 +20400,31 @@
         <v>223</v>
       </c>
       <c r="GR29" s="2">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="GS29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT29" s="2">
-        <v>8138</v>
+        <v>8139</v>
       </c>
       <c r="GU29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV29" s="2">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="GW29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX29" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="GY29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ29" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="HA29" s="2" t="s">
         <v>223</v>
@@ -20442,25 +20442,25 @@
         <v>223</v>
       </c>
       <c r="HF29" s="2">
-        <v>0.9491666666666667</v>
+        <v>0.9466019417475728</v>
       </c>
       <c r="HG29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH29" s="2">
-        <v>-1046</v>
+        <v>-1043</v>
       </c>
       <c r="HI29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ29" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="HK29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL29" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="HM29" s="2" t="s">
         <v>223</v>
@@ -20485,8 +20485,8 @@
       <c r="F30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>223</v>
+      <c r="G30" s="2">
+        <v>22058</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>223</v>
@@ -20497,20 +20497,20 @@
       <c r="J30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>223</v>
+      <c r="K30" s="2">
+        <v>46324022.26</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>223</v>
+      <c r="M30" s="2">
+        <v>-38</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>223</v>
+      <c r="O30" s="2">
+        <v>16319</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>223</v>
@@ -20569,8 +20569,8 @@
       <c r="AH30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AI30" s="2" t="s">
-        <v>223</v>
+      <c r="AI30" s="2">
+        <v>73.98</v>
       </c>
       <c r="AJ30" s="2" t="s">
         <v>223</v>
@@ -20581,8 +20581,8 @@
       <c r="AL30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AM30" s="2" t="s">
-        <v>223</v>
+      <c r="AM30" s="2">
+        <v>14490</v>
       </c>
       <c r="AN30" s="2" t="s">
         <v>223</v>
@@ -20605,14 +20605,14 @@
       <c r="AT30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AU30" s="2" t="s">
-        <v>223</v>
+      <c r="AU30" s="2">
+        <v>65.69</v>
       </c>
       <c r="AV30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AW30" s="2" t="s">
-        <v>223</v>
+      <c r="AW30" s="2">
+        <v>2838.66</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>223</v>
@@ -20689,20 +20689,20 @@
       <c r="BV30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BW30" s="2" t="s">
-        <v>223</v>
+      <c r="BW30" s="2">
+        <v>32861050.63</v>
       </c>
       <c r="BX30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BY30" s="2" t="s">
-        <v>223</v>
+      <c r="BY30" s="2">
+        <v>7787647.182</v>
       </c>
       <c r="BZ30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="CA30" s="2" t="s">
-        <v>223</v>
+      <c r="CA30" s="2">
+        <v>5675324.453</v>
       </c>
       <c r="CB30" s="2" t="s">
         <v>223</v>
@@ -20785,38 +20785,38 @@
       <c r="DB30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DC30" s="2" t="s">
-        <v>223</v>
+      <c r="DC30" s="2">
+        <v>3264</v>
       </c>
       <c r="DD30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DE30" s="2" t="s">
-        <v>223</v>
+      <c r="DE30" s="2">
+        <v>1943</v>
       </c>
       <c r="DF30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DG30" s="2" t="s">
-        <v>223</v>
+      <c r="DG30" s="2">
+        <v>1729</v>
       </c>
       <c r="DH30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DI30" s="2" t="s">
-        <v>223</v>
+      <c r="DI30" s="2">
+        <v>1409</v>
       </c>
       <c r="DJ30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DK30" s="2" t="s">
-        <v>223</v>
+      <c r="DK30" s="2">
+        <v>1028</v>
       </c>
       <c r="DL30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DM30" s="2" t="s">
-        <v>223</v>
+      <c r="DM30" s="2">
+        <v>967</v>
       </c>
       <c r="DN30" s="2" t="s">
         <v>223</v>
@@ -20869,8 +20869,8 @@
       <c r="ED30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EE30" s="2" t="s">
-        <v>223</v>
+      <c r="EE30" s="2">
+        <v>1061</v>
       </c>
       <c r="EF30" s="2" t="s">
         <v>223</v>
@@ -20893,8 +20893,8 @@
       <c r="EL30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EM30" s="2" t="s">
-        <v>223</v>
+      <c r="EM30" s="2">
+        <v>768</v>
       </c>
       <c r="EN30" s="2" t="s">
         <v>223</v>
@@ -20905,8 +20905,8 @@
       <c r="EP30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EQ30" s="2" t="s">
-        <v>223</v>
+      <c r="EQ30" s="2">
+        <v>25462</v>
       </c>
       <c r="ER30" s="2" t="s">
         <v>223</v>
@@ -21148,10 +21148,10 @@
         <v>202517</v>
       </c>
       <c r="F31" s="2">
-        <v>38160</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>223</v>
+        <v>38168</v>
+      </c>
+      <c r="G31" s="2">
+        <v>40767</v>
       </c>
       <c r="H31" s="2">
         <v>5647.48</v>
@@ -21160,25 +21160,25 @@
         <v>223</v>
       </c>
       <c r="J31" s="2">
-        <v>23585997.290000003</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>223</v>
+        <v>23774161.64</v>
+      </c>
+      <c r="K31" s="2">
+        <v>82512308.25</v>
       </c>
       <c r="L31" s="2">
-        <v>-1939</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>223</v>
+        <v>-1931</v>
+      </c>
+      <c r="M31" s="2">
+        <v>827</v>
       </c>
       <c r="N31" s="2">
-        <v>7412</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>223</v>
+        <v>7483</v>
+      </c>
+      <c r="O31" s="2">
+        <v>28121</v>
       </c>
       <c r="P31" s="2">
-        <v>12.579322352294334</v>
+        <v>12.571009712296133</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>223</v>
@@ -21190,13 +21190,13 @@
         <v>223</v>
       </c>
       <c r="T31" s="2">
-        <v>2836432</v>
+        <v>2858698</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V31" s="2">
-        <v>7409</v>
+        <v>7480</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>223</v>
@@ -21208,7 +21208,7 @@
         <v>223</v>
       </c>
       <c r="Z31" s="2">
-        <v>99606</v>
+        <v>100431</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>223</v>
@@ -21232,22 +21232,22 @@
         <v>223</v>
       </c>
       <c r="AH31" s="2">
-        <v>19.42348008385744</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>223</v>
+        <v>19.60542863131419</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>68.98</v>
       </c>
       <c r="AJ31" s="2">
-        <v>8172</v>
+        <v>8257</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL31" s="2">
-        <v>6899</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>223</v>
+        <v>6962</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>24845</v>
       </c>
       <c r="AN31" s="2">
         <v>8</v>
@@ -21256,31 +21256,31 @@
         <v>223</v>
       </c>
       <c r="AP31" s="2">
-        <v>7115</v>
+        <v>7176</v>
       </c>
       <c r="AQ31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR31" s="2">
-        <v>4553</v>
+        <v>4602</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT31" s="2">
-        <v>18.079140461215935</v>
-      </c>
-      <c r="AU31" s="2" t="s">
-        <v>223</v>
+        <v>18.240410815342695</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>60.94</v>
       </c>
       <c r="AV31" s="2">
-        <v>3182.14</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>223</v>
+        <v>3177.09</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>2934.19</v>
       </c>
       <c r="AX31" s="2">
-        <v>4256</v>
+        <v>4295</v>
       </c>
       <c r="AY31" s="2" t="s">
         <v>223</v>
@@ -21334,13 +21334,13 @@
         <v>223</v>
       </c>
       <c r="BP31" s="2">
-        <v>23580349.810000002</v>
+        <v>23768514.16</v>
       </c>
       <c r="BQ31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR31" s="2">
-        <v>19198828.73</v>
+        <v>19340060.380000003</v>
       </c>
       <c r="BS31" s="2" t="s">
         <v>223</v>
@@ -21352,43 +21352,43 @@
         <v>223</v>
       </c>
       <c r="BV31" s="2">
-        <v>19193181.25</v>
-      </c>
-      <c r="BW31" s="2" t="s">
-        <v>223</v>
+        <v>19334412.900000002</v>
+      </c>
+      <c r="BW31" s="2">
+        <v>60022571.83</v>
       </c>
       <c r="BX31" s="2">
-        <v>2023379.5200000003</v>
-      </c>
-      <c r="BY31" s="2" t="s">
-        <v>223</v>
+        <v>2044264.9999999998</v>
+      </c>
+      <c r="BY31" s="2">
+        <v>11740570.27</v>
       </c>
       <c r="BZ31" s="2">
-        <v>1967708.7799999998</v>
-      </c>
-      <c r="CA31" s="2" t="s">
-        <v>223</v>
+        <v>1988571</v>
+      </c>
+      <c r="CA31" s="2">
+        <v>10749166.15</v>
       </c>
       <c r="CB31" s="2">
-        <v>164.70323449927727</v>
+        <v>164.74597139451728</v>
       </c>
       <c r="CC31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD31" s="2">
-        <v>3991088.3</v>
+        <v>4032836.0000000005</v>
       </c>
       <c r="CE31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF31" s="2">
-        <v>8.315375545756078</v>
+        <v>8.316429941183014</v>
       </c>
       <c r="CG31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH31" s="2">
-        <v>236.79293707206395</v>
+        <v>236.7213473927373</v>
       </c>
       <c r="CI31" s="2" t="s">
         <v>223</v>
@@ -21430,61 +21430,61 @@
         <v>223</v>
       </c>
       <c r="CV31" s="2">
-        <v>3182.1367093901786</v>
+        <v>3177.089621809435</v>
       </c>
       <c r="CW31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX31" s="2">
-        <v>382.5952509444145</v>
+        <v>381.9406655084859</v>
       </c>
       <c r="CY31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ31" s="2">
-        <v>28.476517478866736</v>
+        <v>28.464298871862272</v>
       </c>
       <c r="DA31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB31" s="2">
-        <v>21581</v>
-      </c>
-      <c r="DC31" s="2" t="s">
-        <v>223</v>
+        <v>21528</v>
+      </c>
+      <c r="DC31" s="2">
+        <v>6531</v>
       </c>
       <c r="DD31" s="2">
-        <v>5481</v>
-      </c>
-      <c r="DE31" s="2" t="s">
-        <v>223</v>
+        <v>5473</v>
+      </c>
+      <c r="DE31" s="2">
+        <v>3682</v>
       </c>
       <c r="DF31" s="2">
-        <v>3686</v>
-      </c>
-      <c r="DG31" s="2" t="s">
-        <v>223</v>
+        <v>3684</v>
+      </c>
+      <c r="DG31" s="2">
+        <v>2596</v>
       </c>
       <c r="DH31" s="2">
-        <v>2300</v>
-      </c>
-      <c r="DI31" s="2" t="s">
-        <v>223</v>
+        <v>2299</v>
+      </c>
+      <c r="DI31" s="2">
+        <v>1828</v>
       </c>
       <c r="DJ31" s="2">
         <v>1646</v>
       </c>
-      <c r="DK31" s="2" t="s">
-        <v>223</v>
+      <c r="DK31" s="2">
+        <v>1464</v>
       </c>
       <c r="DL31" s="2">
-        <v>1545</v>
-      </c>
-      <c r="DM31" s="2" t="s">
-        <v>223</v>
+        <v>1543</v>
+      </c>
+      <c r="DM31" s="2">
+        <v>1410</v>
       </c>
       <c r="DN31" s="2">
-        <v>5491</v>
+        <v>5488</v>
       </c>
       <c r="DO31" s="2" t="s">
         <v>223</v>
@@ -21526,40 +21526,40 @@
         <v>223</v>
       </c>
       <c r="EB31" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="EC31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED31" s="2">
-        <v>227</v>
-      </c>
-      <c r="EE31" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
+      </c>
+      <c r="EE31" s="2">
+        <v>2204</v>
       </c>
       <c r="EF31" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="EG31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EH31" s="2">
-        <v>37.58911211924822</v>
+        <v>37.65392093324692</v>
       </c>
       <c r="EI31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EJ31" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="EK31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EL31" s="2">
-        <v>283</v>
-      </c>
-      <c r="EM31" s="2" t="s">
-        <v>223</v>
+        <v>286</v>
+      </c>
+      <c r="EM31" s="2">
+        <v>1072</v>
       </c>
       <c r="EN31" s="2">
         <v>10</v>
@@ -21568,19 +21568,19 @@
         <v>223</v>
       </c>
       <c r="EP31" s="2">
-        <v>43651</v>
-      </c>
-      <c r="EQ31" s="2" t="s">
-        <v>223</v>
+        <v>43656</v>
+      </c>
+      <c r="EQ31" s="2">
+        <v>45469</v>
       </c>
       <c r="ER31" s="2">
-        <v>3.5394378135666997</v>
+        <v>3.5344511636430274</v>
       </c>
       <c r="ES31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET31" s="2">
-        <v>8180</v>
+        <v>8265</v>
       </c>
       <c r="EU31" s="2" t="s">
         <v>223</v>
@@ -21592,13 +21592,13 @@
         <v>223</v>
       </c>
       <c r="EX31" s="2">
-        <v>2835796</v>
+        <v>2858062</v>
       </c>
       <c r="EY31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ31" s="2">
-        <v>2379489</v>
+        <v>2396944</v>
       </c>
       <c r="FA31" s="2" t="s">
         <v>223</v>
@@ -21610,31 +21610,31 @@
         <v>223</v>
       </c>
       <c r="FD31" s="2">
-        <v>2378853</v>
+        <v>2396308</v>
       </c>
       <c r="FE31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF31" s="2">
-        <v>246202</v>
+        <v>248584</v>
       </c>
       <c r="FG31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH31" s="2">
-        <v>210741</v>
+        <v>213170</v>
       </c>
       <c r="FI31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ31" s="2">
-        <v>456943</v>
+        <v>461754</v>
       </c>
       <c r="FK31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL31" s="2">
-        <v>19.807071080913108</v>
+        <v>19.809698700002773</v>
       </c>
       <c r="FM31" s="2" t="s">
         <v>223</v>
@@ -21646,7 +21646,7 @@
         <v>223</v>
       </c>
       <c r="FP31" s="2">
-        <v>93966</v>
+        <v>94560</v>
       </c>
       <c r="FQ31" s="2" t="s">
         <v>223</v>
@@ -21658,73 +21658,73 @@
         <v>223</v>
       </c>
       <c r="FT31" s="2">
-        <v>93926</v>
+        <v>94520</v>
       </c>
       <c r="FU31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV31" s="2">
-        <v>143203</v>
+        <v>144308</v>
       </c>
       <c r="FW31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX31" s="2">
-        <v>123253</v>
+        <v>124158</v>
       </c>
       <c r="FY31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ31" s="2">
-        <v>29327</v>
+        <v>29638</v>
       </c>
       <c r="GA31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB31" s="2">
-        <v>19910</v>
+        <v>20110</v>
       </c>
       <c r="GC31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD31" s="2">
-        <v>49237</v>
+        <v>49748</v>
       </c>
       <c r="GE31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF31" s="2">
-        <v>19.320426335671883</v>
+        <v>19.284778832019242</v>
       </c>
       <c r="GG31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH31" s="2">
-        <v>13.438478143550999</v>
+        <v>13.42122143525324</v>
       </c>
       <c r="GI31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GJ31" s="2">
-        <v>19570</v>
+        <v>19571</v>
       </c>
       <c r="GK31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GL31" s="2">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="GM31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GN31" s="2">
-        <v>19978</v>
+        <v>19981</v>
       </c>
       <c r="GO31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP31" s="2">
-        <v>26171</v>
+        <v>26169</v>
       </c>
       <c r="GQ31" s="2" t="s">
         <v>223</v>
@@ -21736,25 +21736,25 @@
         <v>223</v>
       </c>
       <c r="GT31" s="2">
-        <v>12606</v>
+        <v>12613</v>
       </c>
       <c r="GU31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV31" s="2">
-        <v>5633</v>
+        <v>5675</v>
       </c>
       <c r="GW31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX31" s="2">
-        <v>1427</v>
+        <v>1447</v>
       </c>
       <c r="GY31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ31" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="HA31" s="2" t="s">
         <v>223</v>
@@ -21772,25 +21772,25 @@
         <v>223</v>
       </c>
       <c r="HF31" s="2">
-        <v>0.9253056234718826</v>
+        <v>0.9247428917120387</v>
       </c>
       <c r="HG31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH31" s="2">
-        <v>-1328</v>
+        <v>-1321</v>
       </c>
       <c r="HI31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ31" s="2">
-        <v>2859</v>
+        <v>2881</v>
       </c>
       <c r="HK31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL31" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="HM31" s="2" t="s">
         <v>223</v>
@@ -21813,10 +21813,10 @@
         <v>202517</v>
       </c>
       <c r="F32" s="2">
-        <v>26416</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>223</v>
+        <v>26422</v>
+      </c>
+      <c r="G32" s="2">
+        <v>28087</v>
       </c>
       <c r="H32" s="2">
         <v>11421.579999999998</v>
@@ -21825,25 +21825,25 @@
         <v>223</v>
       </c>
       <c r="J32" s="2">
-        <v>13395648.919999996</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>223</v>
+        <v>13530976.46</v>
+      </c>
+      <c r="K32" s="2">
+        <v>58381023.47</v>
       </c>
       <c r="L32" s="2">
-        <v>-1518</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>223</v>
+        <v>-1512</v>
+      </c>
+      <c r="M32" s="2">
+        <v>531</v>
       </c>
       <c r="N32" s="2">
-        <v>4121</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>223</v>
+        <v>4169</v>
+      </c>
+      <c r="O32" s="2">
+        <v>20648</v>
       </c>
       <c r="P32" s="2">
-        <v>13.305934571757358</v>
+        <v>13.29761004635261</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>223</v>
@@ -21855,13 +21855,13 @@
         <v>223</v>
       </c>
       <c r="T32" s="2">
-        <v>1628126</v>
+        <v>1643541</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V32" s="2">
-        <v>4115</v>
+        <v>4163</v>
       </c>
       <c r="W32" s="2" t="s">
         <v>223</v>
@@ -21873,7 +21873,7 @@
         <v>223</v>
       </c>
       <c r="Z32" s="2">
-        <v>57107</v>
+        <v>57800</v>
       </c>
       <c r="AA32" s="2" t="s">
         <v>223</v>
@@ -21897,22 +21897,22 @@
         <v>223</v>
       </c>
       <c r="AH32" s="2">
-        <v>15.600393700787402</v>
-      </c>
-      <c r="AI32" s="2" t="s">
-        <v>223</v>
+        <v>15.778517901748543</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>73.51</v>
       </c>
       <c r="AJ32" s="2">
-        <v>4538</v>
+        <v>4592</v>
       </c>
       <c r="AK32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL32" s="2">
-        <v>3880</v>
-      </c>
-      <c r="AM32" s="2" t="s">
-        <v>223</v>
+        <v>3922</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>18359</v>
       </c>
       <c r="AN32" s="2">
         <v>18</v>
@@ -21921,31 +21921,31 @@
         <v>223</v>
       </c>
       <c r="AP32" s="2">
-        <v>3798</v>
+        <v>3833</v>
       </c>
       <c r="AQ32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR32" s="2">
-        <v>2680</v>
+        <v>2712</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT32" s="2">
-        <v>14.688067837674138</v>
-      </c>
-      <c r="AU32" s="2" t="s">
-        <v>223</v>
+        <v>14.843690863674212</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>65.36</v>
       </c>
       <c r="AV32" s="2">
-        <v>3250.58</v>
-      </c>
-      <c r="AW32" s="2" t="s">
-        <v>223</v>
+        <v>3245.62</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>2827.44</v>
       </c>
       <c r="AX32" s="2">
-        <v>2357</v>
+        <v>2377</v>
       </c>
       <c r="AY32" s="2" t="s">
         <v>223</v>
@@ -21999,13 +21999,13 @@
         <v>223</v>
       </c>
       <c r="BP32" s="2">
-        <v>13384227.34</v>
+        <v>13519554.88</v>
       </c>
       <c r="BQ32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR32" s="2">
-        <v>10424428.9</v>
+        <v>10514460.530000003</v>
       </c>
       <c r="BS32" s="2" t="s">
         <v>223</v>
@@ -22017,43 +22017,43 @@
         <v>223</v>
       </c>
       <c r="BV32" s="2">
-        <v>10413007.320000002</v>
-      </c>
-      <c r="BW32" s="2" t="s">
-        <v>223</v>
+        <v>10503038.950000003</v>
+      </c>
+      <c r="BW32" s="2">
+        <v>36468816.99</v>
       </c>
       <c r="BX32" s="2">
-        <v>1576580.33</v>
-      </c>
-      <c r="BY32" s="2" t="s">
-        <v>223</v>
+        <v>1600810.0899999999</v>
+      </c>
+      <c r="BY32" s="2">
+        <v>12819853.77</v>
       </c>
       <c r="BZ32" s="2">
-        <v>1176204.6900000002</v>
-      </c>
-      <c r="CA32" s="2" t="s">
-        <v>223</v>
+        <v>1192864.7100000002</v>
+      </c>
+      <c r="CA32" s="2">
+        <v>9092352.716</v>
       </c>
       <c r="CB32" s="2">
-        <v>155.43802413553024</v>
+        <v>155.48021257770577</v>
       </c>
       <c r="CC32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD32" s="2">
-        <v>2752785.0200000005</v>
+        <v>2793674.8000000003</v>
       </c>
       <c r="CE32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF32" s="2">
-        <v>8.227648793766573</v>
+        <v>8.232819540248768</v>
       </c>
       <c r="CG32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH32" s="2">
-        <v>234.57104943351948</v>
+        <v>234.09993875432528</v>
       </c>
       <c r="CI32" s="2" t="s">
         <v>223</v>
@@ -22095,61 +22095,61 @@
         <v>223</v>
       </c>
       <c r="CV32" s="2">
-        <v>3250.5821208444545</v>
+        <v>3245.6168049892062</v>
       </c>
       <c r="CW32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX32" s="2">
-        <v>394.7420528997816</v>
+        <v>393.8946989685776</v>
       </c>
       <c r="CY32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ32" s="2">
-        <v>28.51009508466563</v>
+        <v>28.434965397923875</v>
       </c>
       <c r="DA32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB32" s="2">
-        <v>16328</v>
-      </c>
-      <c r="DC32" s="2" t="s">
-        <v>223</v>
+        <v>16292</v>
+      </c>
+      <c r="DC32" s="2">
+        <v>3938</v>
       </c>
       <c r="DD32" s="2">
-        <v>3569</v>
-      </c>
-      <c r="DE32" s="2" t="s">
-        <v>223</v>
+        <v>3565</v>
+      </c>
+      <c r="DE32" s="2">
+        <v>2244</v>
       </c>
       <c r="DF32" s="2">
-        <v>2398</v>
-      </c>
-      <c r="DG32" s="2" t="s">
-        <v>223</v>
+        <v>2396</v>
+      </c>
+      <c r="DG32" s="2">
+        <v>1630</v>
       </c>
       <c r="DH32" s="2">
-        <v>1690</v>
-      </c>
-      <c r="DI32" s="2" t="s">
-        <v>223</v>
+        <v>1689</v>
+      </c>
+      <c r="DI32" s="2">
+        <v>1336</v>
       </c>
       <c r="DJ32" s="2">
         <v>1194</v>
       </c>
-      <c r="DK32" s="2" t="s">
-        <v>223</v>
+      <c r="DK32" s="2">
+        <v>1042</v>
       </c>
       <c r="DL32" s="2">
-        <v>1115</v>
-      </c>
-      <c r="DM32" s="2" t="s">
-        <v>223</v>
+        <v>1114</v>
+      </c>
+      <c r="DM32" s="2">
+        <v>1016</v>
       </c>
       <c r="DN32" s="2">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="DO32" s="2" t="s">
         <v>223</v>
@@ -22191,16 +22191,16 @@
         <v>223</v>
       </c>
       <c r="EB32" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="EC32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED32" s="2">
-        <v>121</v>
-      </c>
-      <c r="EE32" s="2" t="s">
-        <v>223</v>
+        <v>125</v>
+      </c>
+      <c r="EE32" s="2">
+        <v>1567</v>
       </c>
       <c r="EF32" s="2">
         <v>467</v>
@@ -22221,10 +22221,10 @@
         <v>223</v>
       </c>
       <c r="EL32" s="2">
-        <v>119</v>
-      </c>
-      <c r="EM32" s="2" t="s">
-        <v>223</v>
+        <v>121</v>
+      </c>
+      <c r="EM32" s="2">
+        <v>722</v>
       </c>
       <c r="EN32" s="2">
         <v>3</v>
@@ -22233,19 +22233,19 @@
         <v>223</v>
       </c>
       <c r="EP32" s="2">
-        <v>30415</v>
-      </c>
-      <c r="EQ32" s="2" t="s">
-        <v>223</v>
+        <v>30419</v>
+      </c>
+      <c r="EQ32" s="2">
+        <v>31481</v>
       </c>
       <c r="ER32" s="2">
-        <v>3.665954298865691</v>
+        <v>3.6621848186988397</v>
       </c>
       <c r="ES32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET32" s="2">
-        <v>4556</v>
+        <v>4610</v>
       </c>
       <c r="EU32" s="2" t="s">
         <v>223</v>
@@ -22257,13 +22257,13 @@
         <v>223</v>
       </c>
       <c r="EX32" s="2">
-        <v>1626732</v>
+        <v>1642147</v>
       </c>
       <c r="EY32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ32" s="2">
-        <v>1300425</v>
+        <v>1311151</v>
       </c>
       <c r="FA32" s="2" t="s">
         <v>223</v>
@@ -22275,31 +22275,31 @@
         <v>223</v>
       </c>
       <c r="FD32" s="2">
-        <v>1299031</v>
+        <v>1309757</v>
       </c>
       <c r="FE32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF32" s="2">
-        <v>202236</v>
+        <v>205088</v>
       </c>
       <c r="FG32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH32" s="2">
-        <v>125465</v>
+        <v>127175</v>
       </c>
       <c r="FI32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ32" s="2">
-        <v>327701</v>
+        <v>332263</v>
       </c>
       <c r="FK32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL32" s="2">
-        <v>18.89215595265723</v>
+        <v>18.885414871246855</v>
       </c>
       <c r="FM32" s="2" t="s">
         <v>223</v>
@@ -22311,7 +22311,7 @@
         <v>223</v>
       </c>
       <c r="FP32" s="2">
-        <v>51533</v>
+        <v>52007</v>
       </c>
       <c r="FQ32" s="2" t="s">
         <v>223</v>
@@ -22323,49 +22323,49 @@
         <v>223</v>
       </c>
       <c r="FT32" s="2">
-        <v>51443</v>
+        <v>51917</v>
       </c>
       <c r="FU32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV32" s="2">
-        <v>86194</v>
+        <v>87135</v>
       </c>
       <c r="FW32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX32" s="2">
-        <v>73235</v>
+        <v>73962</v>
       </c>
       <c r="FY32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ32" s="2">
-        <v>21792</v>
+        <v>22045</v>
       </c>
       <c r="GA32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB32" s="2">
-        <v>12869</v>
+        <v>13083</v>
       </c>
       <c r="GC32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD32" s="2">
-        <v>34661</v>
+        <v>35128</v>
       </c>
       <c r="GE32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF32" s="2">
-        <v>20.91239990293618</v>
+        <v>20.874790117534182</v>
       </c>
       <c r="GG32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH32" s="2">
-        <v>13.857558844940549</v>
+        <v>13.864236027824418</v>
       </c>
       <c r="GI32" s="2" t="s">
         <v>223</v>
@@ -22383,13 +22383,13 @@
         <v>223</v>
       </c>
       <c r="GN32" s="2">
-        <v>14262</v>
+        <v>14266</v>
       </c>
       <c r="GO32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP32" s="2">
-        <v>13683</v>
+        <v>13685</v>
       </c>
       <c r="GQ32" s="2" t="s">
         <v>223</v>
@@ -22401,25 +22401,25 @@
         <v>223</v>
       </c>
       <c r="GT32" s="2">
-        <v>9396</v>
+        <v>9398</v>
       </c>
       <c r="GU32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV32" s="2">
-        <v>2860</v>
+        <v>2885</v>
       </c>
       <c r="GW32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX32" s="2">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="GY32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ32" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="HA32" s="2" t="s">
         <v>223</v>
@@ -22437,25 +22437,25 @@
         <v>223</v>
       </c>
       <c r="HF32" s="2">
-        <v>0.9249341527655839</v>
+        <v>0.9245119305856833</v>
       </c>
       <c r="HG32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH32" s="2">
-        <v>-1045</v>
+        <v>-1040</v>
       </c>
       <c r="HI32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ32" s="2">
-        <v>1441</v>
+        <v>1456</v>
       </c>
       <c r="HK32" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL32" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="HM32" s="2" t="s">
         <v>223</v>
@@ -23143,55 +23143,55 @@
         <v>202517</v>
       </c>
       <c r="F34" s="2">
-        <v>21307</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>223</v>
+        <v>21311</v>
+      </c>
+      <c r="G34" s="2">
+        <v>22818</v>
       </c>
       <c r="H34" s="2">
-        <v>1645.6</v>
+        <v>2686.97</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="J34" s="2">
-        <v>7680477.769999998</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>223</v>
+        <v>7831169.750000001</v>
+      </c>
+      <c r="K34" s="2">
+        <v>46584555</v>
       </c>
       <c r="L34" s="2">
-        <v>-1240</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>223</v>
+        <v>-1236</v>
+      </c>
+      <c r="M34" s="2">
+        <v>447</v>
       </c>
       <c r="N34" s="2">
-        <v>2520</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>223</v>
+        <v>2573</v>
+      </c>
+      <c r="O34" s="2">
+        <v>16485</v>
       </c>
       <c r="P34" s="2">
-        <v>13.463569165786696</v>
+        <v>13.461382278892229</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="R34" s="2">
-        <v>199</v>
+        <v>330</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T34" s="2">
-        <v>912958</v>
+        <v>930785</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V34" s="2">
-        <v>2519</v>
+        <v>2571</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>223</v>
@@ -23203,7 +23203,7 @@
         <v>223</v>
       </c>
       <c r="Z34" s="2">
-        <v>34464</v>
+        <v>35249</v>
       </c>
       <c r="AA34" s="2" t="s">
         <v>223</v>
@@ -23221,61 +23221,61 @@
         <v>223</v>
       </c>
       <c r="AF34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AH34" s="2">
-        <v>11.827099075421224</v>
-      </c>
-      <c r="AI34" s="2" t="s">
-        <v>223</v>
+        <v>12.07357702594904</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>72.25</v>
       </c>
       <c r="AJ34" s="2">
-        <v>2663</v>
+        <v>2722</v>
       </c>
       <c r="AK34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AL34" s="2">
-        <v>2326</v>
-      </c>
-      <c r="AM34" s="2" t="s">
-        <v>223</v>
+        <v>2375</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>14605</v>
       </c>
       <c r="AN34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AP34" s="2">
-        <v>2300</v>
+        <v>2346</v>
       </c>
       <c r="AQ34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AR34" s="2">
-        <v>1642</v>
+        <v>1679</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="AT34" s="2">
-        <v>10.916600178345144</v>
-      </c>
-      <c r="AU34" s="2" t="s">
-        <v>223</v>
+        <v>11.144479376847638</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>64.01</v>
       </c>
       <c r="AV34" s="2">
-        <v>3047.81</v>
-      </c>
-      <c r="AW34" s="2" t="s">
-        <v>223</v>
+        <v>3043.59</v>
+      </c>
+      <c r="AW34" s="2">
+        <v>2825.88</v>
       </c>
       <c r="AX34" s="2">
-        <v>1422</v>
+        <v>1453</v>
       </c>
       <c r="AY34" s="2" t="s">
         <v>223</v>
@@ -23311,7 +23311,7 @@
         <v>223</v>
       </c>
       <c r="BJ34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK34" s="2" t="s">
         <v>223</v>
@@ -23329,61 +23329,61 @@
         <v>223</v>
       </c>
       <c r="BP34" s="2">
-        <v>7678832.169999998</v>
+        <v>7828482.779999999</v>
       </c>
       <c r="BQ34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BR34" s="2">
-        <v>6045226.740000001</v>
+        <v>6152287.61</v>
       </c>
       <c r="BS34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BT34" s="2">
-        <v>1645.6</v>
+        <v>2686.9700000000003</v>
       </c>
       <c r="BU34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="BV34" s="2">
-        <v>6043581.1400000015</v>
-      </c>
-      <c r="BW34" s="2" t="s">
-        <v>223</v>
+        <v>6149600.640000001</v>
+      </c>
+      <c r="BW34" s="2">
+        <v>30916613.18</v>
       </c>
       <c r="BX34" s="2">
-        <v>732928.9800000001</v>
-      </c>
-      <c r="BY34" s="2" t="s">
-        <v>223</v>
+        <v>751635.69</v>
+      </c>
+      <c r="BY34" s="2">
+        <v>8218335.338</v>
       </c>
       <c r="BZ34" s="2">
-        <v>767820.9900000001</v>
-      </c>
-      <c r="CA34" s="2" t="s">
-        <v>223</v>
+        <v>786876.4500000001</v>
+      </c>
+      <c r="CA34" s="2">
+        <v>7449606.486</v>
       </c>
       <c r="CB34" s="2">
-        <v>155.36518195610392</v>
+        <v>155.29715727685567</v>
       </c>
       <c r="CC34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CD34" s="2">
-        <v>1500749.97</v>
+        <v>1538512.1400000001</v>
       </c>
       <c r="CE34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CF34" s="2">
-        <v>8.412739435987195</v>
+        <v>8.413510907459834</v>
       </c>
       <c r="CG34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CH34" s="2">
-        <v>222.85508849814292</v>
+        <v>222.16714658571877</v>
       </c>
       <c r="CI34" s="2" t="s">
         <v>223</v>
@@ -23425,58 +23425,58 @@
         <v>223</v>
       </c>
       <c r="CV34" s="2">
-        <v>3047.808638888888</v>
+        <v>3043.594928099495</v>
       </c>
       <c r="CW34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CX34" s="2">
-        <v>362.2059523809524</v>
+        <v>361.6226195102993</v>
       </c>
       <c r="CY34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="CZ34" s="2">
-        <v>26.490192664809655</v>
+        <v>26.40599733325768</v>
       </c>
       <c r="DA34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="DB34" s="2">
-        <v>13534</v>
-      </c>
-      <c r="DC34" s="2" t="s">
-        <v>223</v>
+        <v>13490</v>
+      </c>
+      <c r="DC34" s="2">
+        <v>3229</v>
       </c>
       <c r="DD34" s="2">
-        <v>3026</v>
-      </c>
-      <c r="DE34" s="2" t="s">
-        <v>223</v>
+        <v>3025</v>
+      </c>
+      <c r="DE34" s="2">
+        <v>1884</v>
       </c>
       <c r="DF34" s="2">
-        <v>2227</v>
-      </c>
-      <c r="DG34" s="2" t="s">
-        <v>223</v>
+        <v>2223</v>
+      </c>
+      <c r="DG34" s="2">
+        <v>1641</v>
       </c>
       <c r="DH34" s="2">
         <v>1380</v>
       </c>
-      <c r="DI34" s="2" t="s">
-        <v>223</v>
+      <c r="DI34" s="2">
+        <v>1090</v>
       </c>
       <c r="DJ34" s="2">
         <v>1008</v>
       </c>
-      <c r="DK34" s="2" t="s">
-        <v>223</v>
+      <c r="DK34" s="2">
+        <v>884</v>
       </c>
       <c r="DL34" s="2">
         <v>927</v>
       </c>
-      <c r="DM34" s="2" t="s">
-        <v>223</v>
+      <c r="DM34" s="2">
+        <v>843</v>
       </c>
       <c r="DN34" s="2">
         <v>3315</v>
@@ -23521,16 +23521,16 @@
         <v>223</v>
       </c>
       <c r="EB34" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="EC34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ED34" s="2">
-        <v>90</v>
-      </c>
-      <c r="EE34" s="2" t="s">
-        <v>223</v>
+        <v>94</v>
+      </c>
+      <c r="EE34" s="2">
+        <v>1280</v>
       </c>
       <c r="EF34" s="2">
         <v>442</v>
@@ -23545,7 +23545,7 @@
         <v>223</v>
       </c>
       <c r="EJ34" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="EK34" s="2" t="s">
         <v>223</v>
@@ -23553,8 +23553,8 @@
       <c r="EL34" s="2">
         <v>103</v>
       </c>
-      <c r="EM34" s="2" t="s">
-        <v>223</v>
+      <c r="EM34" s="2">
+        <v>600</v>
       </c>
       <c r="EN34" s="2">
         <v>245</v>
@@ -23563,19 +23563,19 @@
         <v>223</v>
       </c>
       <c r="EP34" s="2">
-        <v>24622</v>
-      </c>
-      <c r="EQ34" s="2" t="s">
-        <v>223</v>
+        <v>24626</v>
+      </c>
+      <c r="EQ34" s="2">
+        <v>25635</v>
       </c>
       <c r="ER34" s="2">
-        <v>3.764925676224515</v>
+        <v>3.764314139527329</v>
       </c>
       <c r="ES34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="ET34" s="2">
-        <v>2668</v>
+        <v>2728</v>
       </c>
       <c r="EU34" s="2" t="s">
         <v>223</v>
@@ -23587,49 +23587,49 @@
         <v>223</v>
       </c>
       <c r="EX34" s="2">
-        <v>912759</v>
+        <v>930455</v>
       </c>
       <c r="EY34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="EZ34" s="2">
-        <v>741017</v>
+        <v>754154</v>
       </c>
       <c r="FA34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FB34" s="2">
-        <v>199</v>
+        <v>330</v>
       </c>
       <c r="FC34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FD34" s="2">
-        <v>740818</v>
+        <v>753824</v>
       </c>
       <c r="FE34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FF34" s="2">
-        <v>89978</v>
+        <v>92335</v>
       </c>
       <c r="FG34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FH34" s="2">
-        <v>82276</v>
+        <v>84296</v>
       </c>
       <c r="FI34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FJ34" s="2">
-        <v>172254</v>
+        <v>176631</v>
       </c>
       <c r="FK34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FL34" s="2">
-        <v>18.467846667340954</v>
+        <v>18.458068098439327</v>
       </c>
       <c r="FM34" s="2" t="s">
         <v>223</v>
@@ -23641,61 +23641,61 @@
         <v>223</v>
       </c>
       <c r="FP34" s="2">
-        <v>29701</v>
+        <v>30179</v>
       </c>
       <c r="FQ34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FR34" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="FS34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FT34" s="2">
-        <v>29689</v>
+        <v>30161</v>
       </c>
       <c r="FU34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FV34" s="2">
-        <v>49435</v>
+        <v>50427</v>
       </c>
       <c r="FW34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FX34" s="2">
-        <v>41094</v>
+        <v>41814</v>
       </c>
       <c r="FY34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="FZ34" s="2">
-        <v>11405</v>
+        <v>11653</v>
       </c>
       <c r="GA34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GB34" s="2">
-        <v>8329</v>
+        <v>8595</v>
       </c>
       <c r="GC34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GD34" s="2">
-        <v>19734</v>
+        <v>20248</v>
       </c>
       <c r="GE34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GF34" s="2">
-        <v>19.61706349206349</v>
+        <v>19.598523124757094</v>
       </c>
       <c r="GG34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GH34" s="2">
-        <v>13.676190476190476</v>
+        <v>13.699572483482317</v>
       </c>
       <c r="GI34" s="2" t="s">
         <v>223</v>
@@ -23707,49 +23707,49 @@
         <v>223</v>
       </c>
       <c r="GL34" s="2">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="GM34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GN34" s="2">
-        <v>12134</v>
+        <v>12137</v>
       </c>
       <c r="GO34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GP34" s="2">
-        <v>12433</v>
+        <v>12435</v>
       </c>
       <c r="GQ34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GR34" s="2">
-        <v>4709</v>
+        <v>4707</v>
       </c>
       <c r="GS34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GT34" s="2">
-        <v>7480</v>
+        <v>7484</v>
       </c>
       <c r="GU34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GV34" s="2">
-        <v>1804</v>
+        <v>1835</v>
       </c>
       <c r="GW34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GX34" s="2">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="GY34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="GZ34" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="HA34" s="2" t="s">
         <v>223</v>
@@ -23767,25 +23767,25 @@
         <v>223</v>
       </c>
       <c r="HF34" s="2">
-        <v>0.8954272863568216</v>
+        <v>0.8940615835777126</v>
       </c>
       <c r="HG34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HH34" s="2">
-        <v>-1082</v>
+        <v>-1078</v>
       </c>
       <c r="HI34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HJ34" s="2">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="HK34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="HL34" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="HM34" s="2" t="s">
         <v>223</v>
@@ -23810,8 +23810,8 @@
       <c r="F35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>223</v>
+      <c r="G35" s="2">
+        <v>20158</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>223</v>
@@ -23822,20 +23822,20 @@
       <c r="J35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>223</v>
+      <c r="K35" s="2">
+        <v>41078149.66</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>223</v>
+      <c r="M35" s="2">
+        <v>88</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>223</v>
+      <c r="O35" s="2">
+        <v>14442</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>223</v>
@@ -23894,8 +23894,8 @@
       <c r="AH35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AI35" s="2" t="s">
-        <v>223</v>
+      <c r="AI35" s="2">
+        <v>71.64</v>
       </c>
       <c r="AJ35" s="2" t="s">
         <v>223</v>
@@ -23906,8 +23906,8 @@
       <c r="AL35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AM35" s="2" t="s">
-        <v>223</v>
+      <c r="AM35" s="2">
+        <v>12796</v>
       </c>
       <c r="AN35" s="2" t="s">
         <v>223</v>
@@ -23930,14 +23930,14 @@
       <c r="AT35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AU35" s="2" t="s">
-        <v>223</v>
+      <c r="AU35" s="2">
+        <v>63.48</v>
       </c>
       <c r="AV35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AW35" s="2" t="s">
-        <v>223</v>
+      <c r="AW35" s="2">
+        <v>2844.35</v>
       </c>
       <c r="AX35" s="2" t="s">
         <v>223</v>
@@ -24014,20 +24014,20 @@
       <c r="BV35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BW35" s="2" t="s">
-        <v>223</v>
+      <c r="BW35" s="2">
+        <v>27331265.25</v>
       </c>
       <c r="BX35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BY35" s="2" t="s">
-        <v>223</v>
+      <c r="BY35" s="2">
+        <v>8049319.664</v>
       </c>
       <c r="BZ35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="CA35" s="2" t="s">
-        <v>223</v>
+      <c r="CA35" s="2">
+        <v>5697564.744</v>
       </c>
       <c r="CB35" s="2" t="s">
         <v>223</v>
@@ -24110,38 +24110,38 @@
       <c r="DB35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DC35" s="2" t="s">
-        <v>223</v>
+      <c r="DC35" s="2">
+        <v>3226</v>
       </c>
       <c r="DD35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DE35" s="2" t="s">
-        <v>223</v>
+      <c r="DE35" s="2">
+        <v>1708</v>
       </c>
       <c r="DF35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DG35" s="2" t="s">
-        <v>223</v>
+      <c r="DG35" s="2">
+        <v>1460</v>
       </c>
       <c r="DH35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DI35" s="2" t="s">
-        <v>223</v>
+      <c r="DI35" s="2">
+        <v>1188</v>
       </c>
       <c r="DJ35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DK35" s="2" t="s">
-        <v>223</v>
+      <c r="DK35" s="2">
+        <v>795</v>
       </c>
       <c r="DL35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DM35" s="2" t="s">
-        <v>223</v>
+      <c r="DM35" s="2">
+        <v>884</v>
       </c>
       <c r="DN35" s="2" t="s">
         <v>223</v>
@@ -24194,8 +24194,8 @@
       <c r="ED35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EE35" s="2" t="s">
-        <v>223</v>
+      <c r="EE35" s="2">
+        <v>1029</v>
       </c>
       <c r="EF35" s="2" t="s">
         <v>223</v>
@@ -24218,8 +24218,8 @@
       <c r="EL35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EM35" s="2" t="s">
-        <v>223</v>
+      <c r="EM35" s="2">
+        <v>617</v>
       </c>
       <c r="EN35" s="2" t="s">
         <v>223</v>
@@ -24230,8 +24230,8 @@
       <c r="EP35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EQ35" s="2" t="s">
-        <v>223</v>
+      <c r="EQ35" s="2">
+        <v>23025</v>
       </c>
       <c r="ER35" s="2" t="s">
         <v>223</v>
@@ -24475,8 +24475,8 @@
       <c r="F36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>223</v>
+      <c r="G36" s="2">
+        <v>35212</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>223</v>
@@ -24487,20 +24487,20 @@
       <c r="J36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>223</v>
+      <c r="K36" s="2">
+        <v>73680729.56</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>223</v>
+      <c r="M36" s="2">
+        <v>393</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>223</v>
+      <c r="O36" s="2">
+        <v>24621</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>223</v>
@@ -24559,8 +24559,8 @@
       <c r="AH36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AI36" s="2" t="s">
-        <v>223</v>
+      <c r="AI36" s="2">
+        <v>69.92</v>
       </c>
       <c r="AJ36" s="2" t="s">
         <v>223</v>
@@ -24571,8 +24571,8 @@
       <c r="AL36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AM36" s="2" t="s">
-        <v>223</v>
+      <c r="AM36" s="2">
+        <v>21787</v>
       </c>
       <c r="AN36" s="2" t="s">
         <v>223</v>
@@ -24595,14 +24595,14 @@
       <c r="AT36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AU36" s="2" t="s">
-        <v>223</v>
+      <c r="AU36" s="2">
+        <v>61.87</v>
       </c>
       <c r="AV36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AW36" s="2" t="s">
-        <v>223</v>
+      <c r="AW36" s="2">
+        <v>2992.6</v>
       </c>
       <c r="AX36" s="2" t="s">
         <v>223</v>
@@ -24679,20 +24679,20 @@
       <c r="BV36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BW36" s="2" t="s">
-        <v>223</v>
+      <c r="BW36" s="2">
+        <v>55128704.05</v>
       </c>
       <c r="BX36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BY36" s="2" t="s">
-        <v>223</v>
+      <c r="BY36" s="2">
+        <v>11004952.07</v>
       </c>
       <c r="BZ36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="CA36" s="2" t="s">
-        <v>223</v>
+      <c r="CA36" s="2">
+        <v>7547073.438</v>
       </c>
       <c r="CB36" s="2" t="s">
         <v>223</v>
@@ -24775,38 +24775,38 @@
       <c r="DB36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DC36" s="2" t="s">
-        <v>223</v>
+      <c r="DC36" s="2">
+        <v>5710</v>
       </c>
       <c r="DD36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DE36" s="2" t="s">
-        <v>223</v>
+      <c r="DE36" s="2">
+        <v>3509</v>
       </c>
       <c r="DF36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DG36" s="2" t="s">
-        <v>223</v>
+      <c r="DG36" s="2">
+        <v>2406</v>
       </c>
       <c r="DH36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DI36" s="2" t="s">
-        <v>223</v>
+      <c r="DI36" s="2">
+        <v>1807</v>
       </c>
       <c r="DJ36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DK36" s="2" t="s">
-        <v>223</v>
+      <c r="DK36" s="2">
+        <v>1392</v>
       </c>
       <c r="DL36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DM36" s="2" t="s">
-        <v>223</v>
+      <c r="DM36" s="2">
+        <v>1575</v>
       </c>
       <c r="DN36" s="2" t="s">
         <v>223</v>
@@ -24859,8 +24859,8 @@
       <c r="ED36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EE36" s="2" t="s">
-        <v>223</v>
+      <c r="EE36" s="2">
+        <v>1722</v>
       </c>
       <c r="EF36" s="2" t="s">
         <v>223</v>
@@ -24883,8 +24883,8 @@
       <c r="EL36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EM36" s="2" t="s">
-        <v>223</v>
+      <c r="EM36" s="2">
+        <v>1112</v>
       </c>
       <c r="EN36" s="2" t="s">
         <v>223</v>
@@ -24895,8 +24895,8 @@
       <c r="EP36" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="EQ36" s="2" t="s">
-        <v>223</v>
+      <c r="EQ36" s="2">
+        <v>39986</v>
       </c>
       <c r="ER36" s="2" t="s">
         <v>223</v>
